--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="117">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -1013,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3687,9 +3687,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="12"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="12">
-        <v>0</v>
-      </c>
+      <c r="J63" s="12"/>
       <c r="K63" s="12"/>
     </row>
     <row r="64" spans="1:13">
@@ -4096,10 +4094,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5488,935 +5486,955 @@
         <v>12</v>
       </c>
       <c r="J11" s="32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K11" s="32" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="11"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+    <row r="12" spans="1:11" s="36" customFormat="1">
+      <c r="A12" s="23">
+        <v>151305308</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4831</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="2">
+        <v>615698</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="2">
+        <v>15</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="2">
+        <v>12</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="11">
+      <c r="A13" s="11"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="11">
         <v>151296157</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
         <v>20</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D14" s="26">
         <v>4700</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E14" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H14" s="12">
         <v>2</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="12">
+      <c r="I14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="12">
         <v>0</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K14" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="11">
+      <c r="H15" s="12"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="11">
         <v>151296157</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1">
-        <v>10</v>
-      </c>
-      <c r="D15" s="13">
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16" s="13">
         <v>3700</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E16" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="13">
         <v>615840</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H16" s="13">
         <v>2</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="13">
+      <c r="I16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="13">
         <v>0</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K16" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="15"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-    </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="11">
+      <c r="A17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="11">
         <v>151280693</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
         <v>100</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D18" s="26">
         <v>600</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E18" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="12">
-        <v>10</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="12">
+      <c r="H18" s="12">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="12">
         <v>0</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K18" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:12" s="36" customFormat="1">
-      <c r="A19" s="37">
+    <row r="19" spans="1:12">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" s="36" customFormat="1">
+      <c r="A20" s="37">
         <v>151301248</v>
       </c>
-      <c r="B19" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="32">
-        <v>10</v>
-      </c>
-      <c r="D19" s="32">
+      <c r="B20" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="32">
+        <v>10</v>
+      </c>
+      <c r="D20" s="32">
         <v>5614</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E20" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F20" s="32">
         <v>616026</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G20" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="H19" s="32">
-        <v>10</v>
-      </c>
-      <c r="I19" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="32">
+      <c r="H20" s="32">
+        <v>10</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="32">
         <v>0</v>
       </c>
-      <c r="K19" s="35" t="s">
+      <c r="K20" s="35" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
+    <row r="21" spans="1:12">
+      <c r="A21" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" s="36" customFormat="1">
-      <c r="A21" s="23">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" s="36" customFormat="1">
+      <c r="A22" s="23">
         <v>151300858</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B22" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="60">
-        <v>10</v>
-      </c>
-      <c r="D21" s="61">
+      <c r="C22" s="60">
+        <v>10</v>
+      </c>
+      <c r="D22" s="61">
         <v>6521</v>
       </c>
-      <c r="E21" s="62" t="s">
+      <c r="E22" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F22" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="60" t="s">
+      <c r="G22" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="61">
-        <v>10</v>
-      </c>
-      <c r="I21" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="61">
+      <c r="H22" s="61">
+        <v>10</v>
+      </c>
+      <c r="I22" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="61">
         <v>0</v>
       </c>
-      <c r="K21" s="61" t="s">
+      <c r="K22" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="L21" s="56"/>
-    </row>
-    <row r="22" spans="1:12" s="36" customFormat="1">
-      <c r="A22" s="31">
+      <c r="L22" s="56"/>
+    </row>
+    <row r="23" spans="1:12" s="36" customFormat="1">
+      <c r="A23" s="31">
         <v>151302474</v>
       </c>
-      <c r="B22" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="32">
+      <c r="B23" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="32">
         <v>20</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D23" s="35">
         <v>6521</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E23" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F23" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G23" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H23" s="35">
         <v>5</v>
       </c>
-      <c r="I22" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="35">
-        <v>5</v>
-      </c>
-      <c r="K22" s="35" t="s">
+      <c r="I23" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="35">
+        <v>0</v>
+      </c>
+      <c r="K23" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="L22" s="56"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="11"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-    </row>
-    <row r="24" spans="1:12" s="36" customFormat="1">
-      <c r="A24" s="31">
+      <c r="L23" s="56"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="11"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:12" s="36" customFormat="1">
+      <c r="A25" s="31">
         <v>151302474</v>
       </c>
-      <c r="B24" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="32">
+      <c r="B25" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="32">
         <v>30</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D25" s="32">
         <v>4048</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E25" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F25" s="32">
         <v>630059</v>
       </c>
-      <c r="G24" s="32" t="s">
+      <c r="G25" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="32">
-        <v>10</v>
-      </c>
-      <c r="I24" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="32">
-        <v>10</v>
-      </c>
-      <c r="K24" s="32" t="s">
+      <c r="H25" s="32">
+        <v>10</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="32">
+        <v>0</v>
+      </c>
+      <c r="K25" s="32" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="11"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" s="36" customFormat="1">
-      <c r="A26" s="31">
+    <row r="26" spans="1:12">
+      <c r="A26" s="11"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" s="36" customFormat="1">
+      <c r="A27" s="31">
         <v>151294161</v>
       </c>
-      <c r="B26" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="32">
-        <v>10</v>
-      </c>
-      <c r="D26" s="59">
+      <c r="B27" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="32">
+        <v>10</v>
+      </c>
+      <c r="D27" s="59">
         <v>5738</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E27" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F27" s="31">
         <v>632215</v>
       </c>
-      <c r="G26" s="31" t="s">
+      <c r="G27" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H27" s="32">
         <v>14</v>
       </c>
-      <c r="I26" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="32">
+      <c r="I27" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="32">
         <v>0</v>
       </c>
-      <c r="K26" s="31" t="s">
+      <c r="K27" s="31" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="12" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="11"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="11">
+    <row r="28" spans="1:12" ht="12" customHeight="1">
+      <c r="A28" s="11"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="11">
         <v>151110116</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1">
         <v>60</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D29" s="13">
         <v>3450</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E29" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F29" s="13">
         <v>634355</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G29" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="13">
-        <v>10</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="13">
-        <v>10</v>
-      </c>
-      <c r="K28" s="13" t="s">
+      <c r="H29" s="13">
+        <v>10</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="13">
+        <v>10</v>
+      </c>
+      <c r="K29" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="2">
+    <row r="30" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="12"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="2">
         <v>151008992</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C31" s="2">
         <v>20</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D31" s="10">
         <v>4726</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F31" s="2">
         <v>635655</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H30" s="2">
-        <v>10</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="H31" s="2">
+        <v>10</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J31" s="2">
         <v>0</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" s="36" customFormat="1">
-      <c r="A32" s="31">
+    <row r="32" spans="1:12">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" s="36" customFormat="1">
+      <c r="A33" s="31">
         <v>151302474</v>
       </c>
-      <c r="B32" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="32">
+      <c r="B33" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="32">
         <v>40</v>
       </c>
-      <c r="D32" s="63">
+      <c r="D33" s="63">
         <v>2818</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E33" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F33" s="31">
         <v>635656</v>
       </c>
-      <c r="G32" s="32" t="s">
+      <c r="G33" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H33" s="32">
         <v>15</v>
       </c>
-      <c r="I32" s="32" t="s">
+      <c r="I33" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="J32" s="32">
-        <v>15</v>
-      </c>
-      <c r="K32" s="32" t="s">
+      <c r="J33" s="32">
+        <v>0</v>
+      </c>
+      <c r="K33" s="32" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" s="36" customFormat="1">
-      <c r="A34" s="31">
+    <row r="34" spans="1:11">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" s="36" customFormat="1">
+      <c r="A35" s="31">
         <v>151302474</v>
       </c>
-      <c r="B34" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="32">
+      <c r="B35" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="32">
         <v>50</v>
       </c>
-      <c r="D34" s="59">
+      <c r="D35" s="59">
         <v>3555</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E35" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F35" s="31">
         <v>646872</v>
       </c>
-      <c r="G34" s="31" t="s">
+      <c r="G35" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="H34" s="32">
-        <v>10</v>
-      </c>
-      <c r="I34" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34" s="32">
-        <v>10</v>
-      </c>
-      <c r="K34" s="31" t="s">
+      <c r="H35" s="32">
+        <v>10</v>
+      </c>
+      <c r="I35" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="32">
+        <v>0</v>
+      </c>
+      <c r="K35" s="31" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="11"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="11"/>
-    </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="11">
+      <c r="A36" s="11"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="11"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="11">
         <v>151110116</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="1">
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1">
         <v>40</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D37" s="26">
         <v>112</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E37" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H37" s="12">
         <v>50</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="12">
+      <c r="I37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="12">
         <v>0</v>
       </c>
-      <c r="K36" s="12" t="s">
+      <c r="K37" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-    </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="23">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="23">
         <v>151197029</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C39" s="2">
         <v>60</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D39" s="3">
         <v>3510</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F39" s="2">
         <v>663091</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H39" s="5">
         <v>2</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="5">
+      <c r="I39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="5">
         <v>0</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K39" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-    </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="6">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="6">
         <v>151090350</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="2">
-        <v>10</v>
-      </c>
-      <c r="D40" s="3">
+      <c r="C41" s="2">
+        <v>10</v>
+      </c>
+      <c r="D41" s="3">
         <v>5130</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F41" s="2">
         <v>663092</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H41" s="5">
         <v>2</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" s="5">
+      <c r="I41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="5">
         <v>0</v>
       </c>
-      <c r="K40" s="5" t="s">
+      <c r="K41" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-    </row>
-    <row r="42" spans="1:11" s="36" customFormat="1">
-      <c r="A42" s="6">
+    <row r="42" spans="1:11">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+    </row>
+    <row r="43" spans="1:11" s="36" customFormat="1">
+      <c r="A43" s="6">
         <v>151282825</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="2">
-        <v>10</v>
-      </c>
-      <c r="D42" s="3">
+      <c r="C43" s="2">
+        <v>10</v>
+      </c>
+      <c r="D43" s="3">
         <v>6615</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F43" s="2">
         <v>663093</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H43" s="5">
         <v>2</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J42" s="5">
+      <c r="I43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="5">
         <v>0</v>
       </c>
-      <c r="K42" s="5" t="s">
+      <c r="K43" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-    </row>
     <row r="44" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A44" s="6">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+    </row>
+    <row r="45" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A45" s="6">
         <v>151283046</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="2">
-        <v>10</v>
-      </c>
-      <c r="D44" s="3">
+      <c r="C45" s="2">
+        <v>10</v>
+      </c>
+      <c r="D45" s="3">
         <v>34000</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F45" s="2">
         <v>667226</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G45" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H45" s="5">
         <v>2</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" s="5">
+      <c r="I45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="5">
         <v>2</v>
       </c>
-      <c r="K44" s="5" t="s">
+      <c r="K45" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="6">
+    <row r="46" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="6">
         <v>151282825</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C47" s="2">
         <v>40</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D47" s="3">
         <v>6000</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E47" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F47" s="2">
         <v>668330</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H47" s="5">
         <v>3</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="5">
+      <c r="I47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="5">
         <v>0</v>
       </c>
-      <c r="K46" s="5" t="s">
+      <c r="K47" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="36" customFormat="1">
-      <c r="A47" s="37"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-    </row>
     <row r="48" spans="1:11" s="36" customFormat="1">
-      <c r="A48" s="11">
+      <c r="A48" s="37"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+    </row>
+    <row r="49" spans="1:13" s="36" customFormat="1">
+      <c r="A49" s="11">
         <v>151280693</v>
       </c>
-      <c r="B48" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="32">
+      <c r="B49" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="32">
         <v>60</v>
       </c>
-      <c r="D48" s="33">
+      <c r="D49" s="33">
         <v>9703</v>
       </c>
-      <c r="E48" s="34" t="s">
+      <c r="E49" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="F48" s="31">
+      <c r="F49" s="31">
         <v>681149</v>
       </c>
-      <c r="G48" s="31" t="s">
+      <c r="G49" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="H48" s="35">
+      <c r="H49" s="35">
         <v>2</v>
       </c>
-      <c r="I48" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="35">
+      <c r="I49" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="35">
         <v>0</v>
       </c>
-      <c r="K48" s="34" t="s">
+      <c r="K49" s="34" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
     </row>
     <row r="50" spans="1:13" s="36" customFormat="1">
       <c r="A50" s="11">
-        <v>151288108</v>
+        <v>151306604</v>
       </c>
       <c r="B50" s="32" t="s">
         <v>10</v>
@@ -6425,19 +6443,19 @@
         <v>10</v>
       </c>
       <c r="D50" s="33">
-        <v>1908</v>
+        <v>9703</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F50" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G50" s="32" t="s">
-        <v>35</v>
+        <v>97</v>
+      </c>
+      <c r="F50" s="31">
+        <v>681149</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>76</v>
       </c>
       <c r="H50" s="35">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I50" s="32" t="s">
         <v>12</v>
@@ -6445,66 +6463,68 @@
       <c r="J50" s="35">
         <v>0</v>
       </c>
-      <c r="K50" s="35" t="s">
+      <c r="K50" s="34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+    </row>
+    <row r="52" spans="1:13" s="36" customFormat="1">
+      <c r="A52" s="11">
+        <v>151288108</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="32">
+        <v>10</v>
+      </c>
+      <c r="D52" s="33">
+        <v>1908</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52" s="35">
+        <v>10</v>
+      </c>
+      <c r="I52" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="35">
+        <v>0</v>
+      </c>
+      <c r="K52" s="35" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="36" customFormat="1">
-      <c r="A51" s="11"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-    </row>
-    <row r="52" spans="1:13" s="36" customFormat="1">
-      <c r="A52" s="6">
-        <v>151288592</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="2">
-        <v>10</v>
-      </c>
-      <c r="D52" s="3">
-        <v>8463</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F52" s="6">
-        <v>687349</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H52" s="5">
-        <v>10</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="5">
-        <v>10</v>
-      </c>
-      <c r="K52" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
     <row r="53" spans="1:13" s="36" customFormat="1">
-      <c r="A53" s="31"/>
+      <c r="A53" s="11"/>
       <c r="B53" s="32"/>
       <c r="C53" s="32"/>
       <c r="D53" s="33"/>
       <c r="E53" s="34"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="57"/>
+      <c r="G53" s="32"/>
       <c r="H53" s="35"/>
       <c r="I53" s="32"/>
       <c r="J53" s="35"/>
@@ -6512,7 +6532,7 @@
     </row>
     <row r="54" spans="1:13" s="36" customFormat="1">
       <c r="A54" s="6">
-        <v>151242082</v>
+        <v>151288592</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>16</v>
@@ -6521,19 +6541,19 @@
         <v>10</v>
       </c>
       <c r="D54" s="3">
-        <v>1600</v>
+        <v>8463</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="F54" s="6">
-        <v>691660</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>78</v>
+        <v>687349</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="H54" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>12</v>
@@ -6542,55 +6562,55 @@
         <v>0</v>
       </c>
       <c r="K54" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="36" customFormat="1">
+      <c r="A55" s="31"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+    </row>
+    <row r="56" spans="1:13" s="36" customFormat="1">
+      <c r="A56" s="6">
+        <v>151242082</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="2">
+        <v>10</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" s="6">
+        <v>691660</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H56" s="5">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="5">
+        <v>0</v>
+      </c>
+      <c r="K56" s="5" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-    </row>
-    <row r="56" spans="1:13" s="47" customFormat="1">
-      <c r="A56" s="11">
-        <v>151280693</v>
-      </c>
-      <c r="B56" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="32">
-        <v>40</v>
-      </c>
-      <c r="D56" s="33">
-        <v>565</v>
-      </c>
-      <c r="E56" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="F56" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G56" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H56" s="35">
-        <v>100</v>
-      </c>
-      <c r="I56" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" s="35">
-        <v>0</v>
-      </c>
-      <c r="K56" s="35" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -6605,43 +6625,40 @@
       <c r="I57" s="1"/>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
-      <c r="M57" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="18">
-        <v>151264212</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="18">
-        <v>10</v>
-      </c>
-      <c r="D58" s="52">
-        <v>10710</v>
-      </c>
-      <c r="E58" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="F58" s="18">
-        <v>704681</v>
-      </c>
-      <c r="G58" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H58" s="19">
-        <v>1</v>
-      </c>
-      <c r="I58" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J58" s="19">
+    </row>
+    <row r="58" spans="1:13" s="47" customFormat="1">
+      <c r="A58" s="11">
+        <v>151280693</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="32">
+        <v>40</v>
+      </c>
+      <c r="D58" s="33">
+        <v>565</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F58" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G58" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" s="35">
+        <v>100</v>
+      </c>
+      <c r="I58" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="35">
         <v>0</v>
       </c>
-      <c r="K58" s="19" t="s">
-        <v>82</v>
+      <c r="K58" s="35" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -6651,45 +6668,48 @@
       <c r="D59" s="26"/>
       <c r="E59" s="27"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="57"/>
+      <c r="G59" s="1"/>
       <c r="H59" s="12"/>
       <c r="I59" s="1"/>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
+      <c r="M59" s="25" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D60" s="26">
-        <v>4995</v>
-      </c>
-      <c r="E60" s="27">
-        <v>44223</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H60" s="12">
-        <v>2</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J60" s="12">
+      <c r="A60" s="18">
+        <v>151264212</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="18">
+        <v>10</v>
+      </c>
+      <c r="D60" s="52">
+        <v>10710</v>
+      </c>
+      <c r="E60" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F60" s="18">
+        <v>704681</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H60" s="19">
+        <v>1</v>
+      </c>
+      <c r="I60" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="19">
         <v>0</v>
       </c>
-      <c r="K60" s="12" t="s">
-        <v>41</v>
+      <c r="K60" s="19" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -6699,7 +6719,7 @@
       <c r="D61" s="26"/>
       <c r="E61" s="27"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+      <c r="G61" s="57"/>
       <c r="H61" s="12"/>
       <c r="I61" s="1"/>
       <c r="J61" s="12"/>
@@ -6713,19 +6733,19 @@
         <v>10</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D62" s="26">
-        <v>4245</v>
+        <v>4995</v>
       </c>
       <c r="E62" s="27">
         <v>44223</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H62" s="12">
         <v>2</v>
@@ -6754,29 +6774,29 @@
       <c r="K63" s="12"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="21">
-        <v>151113088</v>
+      <c r="A64" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="1">
-        <v>10</v>
+      <c r="C64" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D64" s="26">
-        <v>1896</v>
+        <v>4245</v>
       </c>
       <c r="E64" s="27">
-        <v>44487</v>
+        <v>44223</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H64" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>12</v>
@@ -6785,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -6801,270 +6821,353 @@
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
     </row>
-    <row r="66" spans="1:11" s="36" customFormat="1">
-      <c r="A66" s="31">
+    <row r="66" spans="1:11">
+      <c r="A66" s="21">
+        <v>151113088</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="1">
+        <v>10</v>
+      </c>
+      <c r="D66" s="26">
+        <v>1896</v>
+      </c>
+      <c r="E66" s="27">
+        <v>44487</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" s="12">
+        <v>5</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" s="12">
+        <v>0</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+    </row>
+    <row r="68" spans="1:11" s="36" customFormat="1">
+      <c r="A68" s="31">
         <v>151280693</v>
       </c>
-      <c r="B66" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="54">
+      <c r="B68" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="54">
         <v>30</v>
       </c>
-      <c r="D66" s="54">
+      <c r="D68" s="54">
         <v>45000</v>
       </c>
-      <c r="E66" s="54" t="s">
+      <c r="E68" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="F66" s="54">
+      <c r="F68" s="54">
         <v>719031</v>
       </c>
-      <c r="G66" s="54" t="s">
+      <c r="G68" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="H66" s="55">
+      <c r="H68" s="55">
         <v>20</v>
       </c>
-      <c r="I66" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="J66" s="55">
+      <c r="I68" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="55">
         <v>15</v>
       </c>
-      <c r="K66" s="55" t="s">
+      <c r="K68" s="55" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="11"/>
-      <c r="B67" s="44"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="45"/>
-      <c r="K67" s="45"/>
-    </row>
-    <row r="68" spans="1:11" s="36" customFormat="1">
-      <c r="A68" s="6">
-        <v>151293864</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" s="2">
-        <v>20</v>
-      </c>
-      <c r="D68" s="20">
-        <v>9999</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F68" s="6">
-        <v>719381</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H68" s="2">
-        <v>5</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" s="2">
-        <v>0</v>
-      </c>
-      <c r="K68" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="11"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="11"/>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="45"/>
+      <c r="K69" s="45"/>
+    </row>
+    <row r="70" spans="1:11" s="36" customFormat="1">
       <c r="A70" s="6">
         <v>151293864</v>
       </c>
-      <c r="B70" s="58" t="s">
+      <c r="B70" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C70" s="58">
-        <v>10</v>
-      </c>
-      <c r="D70" s="7">
+      <c r="C70" s="2">
+        <v>20</v>
+      </c>
+      <c r="D70" s="20">
+        <v>9999</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F70" s="6">
+        <v>719381</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H70" s="2">
+        <v>5</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="36" customFormat="1">
+      <c r="A71" s="37">
+        <v>151306716</v>
+      </c>
+      <c r="B71" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="32">
+        <v>10</v>
+      </c>
+      <c r="D71" s="59">
+        <v>9999</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F71" s="31">
+        <v>719381</v>
+      </c>
+      <c r="G71" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H71" s="32">
+        <v>5</v>
+      </c>
+      <c r="I71" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="32">
+        <v>5</v>
+      </c>
+      <c r="K71" s="31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="11"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="11"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="6">
+        <v>151293864</v>
+      </c>
+      <c r="B73" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="58">
+        <v>10</v>
+      </c>
+      <c r="D73" s="7">
         <v>6800</v>
       </c>
-      <c r="E70" s="58" t="s">
+      <c r="E73" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F73" s="7">
         <v>720138</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G73" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H70" s="58">
+      <c r="H73" s="58">
         <v>2</v>
       </c>
-      <c r="I70" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70" s="58">
+      <c r="I73" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" s="58">
         <v>0</v>
       </c>
-      <c r="K70" s="58" t="s">
+      <c r="K73" s="58" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="1"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="40"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="40"/>
-      <c r="K71" s="40"/>
-    </row>
-    <row r="72" spans="1:11" s="36" customFormat="1">
-      <c r="A72" s="11">
+    <row r="74" spans="1:11">
+      <c r="A74" s="1"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="40"/>
+      <c r="K74" s="40"/>
+    </row>
+    <row r="75" spans="1:11" s="36" customFormat="1">
+      <c r="A75" s="11">
         <v>151280693</v>
       </c>
-      <c r="B72" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" s="32">
-        <v>10</v>
-      </c>
-      <c r="D72" s="32">
+      <c r="B75" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="32">
+        <v>10</v>
+      </c>
+      <c r="D75" s="32">
         <v>2490</v>
       </c>
-      <c r="E72" s="32" t="s">
+      <c r="E75" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="F72" s="31">
+      <c r="F75" s="31">
         <v>724214</v>
       </c>
-      <c r="G72" s="31" t="s">
+      <c r="G75" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="H72" s="32">
+      <c r="H75" s="32">
         <v>20</v>
       </c>
-      <c r="I72" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J72" s="32">
+      <c r="I75" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" s="32">
         <v>0</v>
       </c>
-      <c r="K72" s="32" t="s">
+      <c r="K75" s="32" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="1">
+    <row r="76" spans="1:11">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="1">
         <v>16063532</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" s="1">
-        <v>10</v>
-      </c>
-      <c r="D74" s="1">
+      <c r="B77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="1">
+        <v>10</v>
+      </c>
+      <c r="D77" s="1">
         <v>2900</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F77" s="1">
         <v>725828</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H74" s="1">
-        <v>10</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J74" s="1">
+      <c r="H77" s="1">
+        <v>10</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" s="1">
         <v>0</v>
       </c>
-      <c r="K74" s="1" t="s">
+      <c r="K77" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="6">
+    <row r="79" spans="1:11">
+      <c r="A79" s="6">
         <v>151294292</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C76" s="2">
-        <v>10</v>
-      </c>
-      <c r="D76" s="2">
+      <c r="C79" s="2">
+        <v>10</v>
+      </c>
+      <c r="D79" s="2">
         <v>100</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F79" s="2">
         <v>728488</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="G79" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H76" s="2">
+      <c r="H79" s="2">
         <v>61</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="I79" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J76" s="2">
+      <c r="J79" s="2">
         <v>0</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="K79" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
-      <c r="F79" s="17"/>
+    <row r="82" spans="6:6">
+      <c r="F82" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -1013,7 +1013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
@@ -4097,7 +4097,7 @@
   <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="111">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -305,9 +305,6 @@
     <t>07.02.2023</t>
   </si>
   <si>
-    <t>11.04.2023</t>
-  </si>
-  <si>
     <t>02.03.2023</t>
   </si>
   <si>
@@ -323,48 +320,15 @@
     <t>13.03.2023</t>
   </si>
   <si>
-    <t>06.02.2023</t>
-  </si>
-  <si>
-    <t>05.05.2023</t>
-  </si>
-  <si>
-    <t>11.02.2023</t>
-  </si>
-  <si>
-    <t>04.03.2023</t>
-  </si>
-  <si>
-    <t>12.04.2023</t>
-  </si>
-  <si>
     <t>CPU_DELL_MT0.5 &amp; MT1.0</t>
   </si>
   <si>
     <t>13.02.2023</t>
   </si>
   <si>
-    <t>18.03.2023</t>
-  </si>
-  <si>
-    <t>30.03.2023</t>
-  </si>
-  <si>
     <t>17.05.2023</t>
   </si>
   <si>
-    <t>25.02.2023</t>
-  </si>
-  <si>
-    <t>27.03.2023</t>
-  </si>
-  <si>
-    <t>27.02.2023</t>
-  </si>
-  <si>
-    <t>10.03.2023</t>
-  </si>
-  <si>
     <t>20.03.2023</t>
   </si>
   <si>
@@ -378,6 +342,24 @@
   </si>
   <si>
     <t>03.04.2023</t>
+  </si>
+  <si>
+    <t>14.06.2023</t>
+  </si>
+  <si>
+    <t>06.04.2023</t>
+  </si>
+  <si>
+    <t>15.04.2023</t>
+  </si>
+  <si>
+    <t>13.04.2023</t>
+  </si>
+  <si>
+    <t>21.03.2023</t>
+  </si>
+  <si>
+    <t>19.06.2023</t>
   </si>
 </sst>
 </file>
@@ -458,7 +440,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -505,24 +487,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -695,16 +664,10 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1011,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M82"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2292,20 +2255,20 @@
       <c r="K7" s="43"/>
     </row>
     <row r="8" spans="1:11" s="36" customFormat="1">
-      <c r="A8" s="23">
-        <v>151290901</v>
+      <c r="A8" s="6">
+        <v>151308917</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D8" s="10">
         <v>2400</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F8" s="2">
         <v>615181</v>
@@ -2314,16 +2277,16 @@
         <v>17</v>
       </c>
       <c r="H8" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J8" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2340,122 +2303,102 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" s="36" customFormat="1">
-      <c r="A10" s="23">
-        <v>151296060</v>
-      </c>
-      <c r="B10" s="60" t="s">
+      <c r="A10" s="6">
+        <v>151308917</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="60">
-        <v>10</v>
-      </c>
-      <c r="D10" s="60">
+      <c r="C10" s="2">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2">
         <v>4831</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="2">
+        <v>615698</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="2">
+        <v>20</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="2">
+        <v>20</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="11"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="11">
+        <v>151296157</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>20</v>
+      </c>
+      <c r="D12" s="26">
+        <v>4700</v>
+      </c>
+      <c r="E12" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="60">
-        <v>615698</v>
-      </c>
-      <c r="G10" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="60">
-        <v>15</v>
-      </c>
-      <c r="I10" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="60">
+      <c r="F12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="12">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="12">
         <v>0</v>
       </c>
-      <c r="K10" s="60" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="36" customFormat="1">
-      <c r="A11" s="31">
-        <v>151302474</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="32">
-        <v>10</v>
-      </c>
-      <c r="D11" s="32">
-        <v>4831</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="32">
-        <v>615698</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="32">
-        <v>5</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="32">
-        <v>0</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="36" customFormat="1">
-      <c r="A12" s="23">
-        <v>151305308</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2">
-        <v>4831</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="2">
-        <v>615698</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="2">
-        <v>15</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="2">
-        <v>12</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>114</v>
+      <c r="K12" s="12" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="11"/>
+      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="12"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="11">
@@ -2465,1069 +2408,1045 @@
         <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>20</v>
-      </c>
-      <c r="D14" s="26">
-        <v>4700</v>
-      </c>
-      <c r="E14" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="13">
+        <v>3700</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="12">
+      <c r="F14" s="13">
+        <v>615840</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="13">
         <v>2</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="12">
+      <c r="I14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="13">
         <v>0</v>
       </c>
-      <c r="K14" s="12" t="s">
-        <v>107</v>
+      <c r="K14" s="13" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="1"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="11">
-        <v>151296157</v>
+        <v>151280693</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="1">
-        <v>10</v>
-      </c>
-      <c r="D16" s="13">
-        <v>3700</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="13">
-        <v>615840</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="13">
-        <v>2</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="13">
+        <v>100</v>
+      </c>
+      <c r="D16" s="26">
+        <v>600</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="12">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="12">
         <v>0</v>
       </c>
-      <c r="K16" s="13" t="s">
-        <v>107</v>
+      <c r="K16" s="12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="15"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="1"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" s="36" customFormat="1">
       <c r="A18" s="11">
-        <v>151280693</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1">
-        <v>100</v>
-      </c>
-      <c r="D18" s="26">
-        <v>600</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="12">
-        <v>10</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="12">
-        <v>0</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
+        <v>151311194</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="32">
+        <v>10</v>
+      </c>
+      <c r="D18" s="32">
+        <v>5614</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="32">
+        <v>616026</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="32">
+        <v>6</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="32">
+        <v>1</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="36" customFormat="1">
+      <c r="A19" s="11"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="35"/>
     </row>
     <row r="20" spans="1:12" s="36" customFormat="1">
-      <c r="A20" s="37">
-        <v>151301248</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="32">
-        <v>10</v>
-      </c>
-      <c r="D20" s="32">
-        <v>5614</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="32">
-        <v>616026</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="32">
-        <v>10</v>
-      </c>
-      <c r="I20" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="32">
-        <v>0</v>
-      </c>
-      <c r="K20" s="35" t="s">
-        <v>111</v>
-      </c>
+      <c r="A20" s="6">
+        <v>151308917</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
+        <v>80</v>
+      </c>
+      <c r="D20" s="5">
+        <v>6521</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="5">
+        <v>10</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="5">
+        <v>10</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L20" s="56"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="11" t="s">
-        <v>60</v>
-      </c>
+      <c r="A21" s="11"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:12" s="36" customFormat="1">
       <c r="A22" s="23">
-        <v>151300858</v>
-      </c>
-      <c r="B22" s="60" t="s">
+        <v>151308917</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="60">
-        <v>10</v>
-      </c>
-      <c r="D22" s="61">
-        <v>6521</v>
-      </c>
-      <c r="E22" s="62" t="s">
+      <c r="C22" s="2">
+        <v>70</v>
+      </c>
+      <c r="D22" s="2">
+        <v>4048</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="2">
+        <v>630059</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="2">
+        <v>10</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="2">
+        <v>10</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="11"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" s="36" customFormat="1">
+      <c r="A24" s="6">
+        <v>151308917</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="2">
+        <v>50</v>
+      </c>
+      <c r="D24" s="20">
+        <v>5738</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="6">
+        <v>632215</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="2">
+        <v>2</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="12" customHeight="1">
+      <c r="A25" s="11"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="11">
+        <v>151110116</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
+        <v>60</v>
+      </c>
+      <c r="D26" s="13">
+        <v>3450</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="13">
+        <v>634355</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="13">
+        <v>10</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="13">
+        <v>10</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="2">
+        <v>151008992</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="2">
+        <v>20</v>
+      </c>
+      <c r="D28" s="10">
+        <v>4726</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="2">
+        <v>635655</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="2">
+        <v>10</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" s="36" customFormat="1">
+      <c r="A30" s="31">
+        <v>151302474</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="32">
+        <v>40</v>
+      </c>
+      <c r="D30" s="60">
+        <v>2818</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="31">
+        <v>635656</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="32">
+        <v>15</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="32">
+        <v>0</v>
+      </c>
+      <c r="K30" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" s="36" customFormat="1">
+      <c r="A32" s="31">
+        <v>151302474</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="32">
+        <v>50</v>
+      </c>
+      <c r="D32" s="59">
+        <v>3555</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="31">
+        <v>646872</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" s="32">
+        <v>10</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="32">
+        <v>0</v>
+      </c>
+      <c r="K32" s="31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="11"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="11"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="11">
+        <v>151110116</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1">
+        <v>40</v>
+      </c>
+      <c r="D34" s="26">
+        <v>112</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="12">
+        <v>50</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="12">
+        <v>0</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="23">
+        <v>151197029</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="2">
+        <v>60</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3510</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="2">
+        <v>663091</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="5">
+        <v>2</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="6">
+        <v>151090350</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="2">
+        <v>10</v>
+      </c>
+      <c r="D38" s="3">
+        <v>5130</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="2">
+        <v>663092</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" s="5">
+        <v>2</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" spans="1:11" s="36" customFormat="1">
+      <c r="A40" s="6">
+        <v>151308917</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="2">
+        <v>60</v>
+      </c>
+      <c r="D40" s="3">
+        <v>6615</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="2">
+        <v>663093</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="5">
+        <v>2</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="5">
+        <v>2</v>
+      </c>
+      <c r="K40" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" s="61">
-        <v>10</v>
-      </c>
-      <c r="I22" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="61">
+    </row>
+    <row r="41" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+    </row>
+    <row r="42" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A42" s="6">
+        <v>151283046</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="2">
+        <v>10</v>
+      </c>
+      <c r="D42" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" s="2">
+        <v>667226</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42" s="5">
+        <v>2</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="5">
+        <v>2</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="6">
+        <v>151282825</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="2">
+        <v>40</v>
+      </c>
+      <c r="D44" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="2">
+        <v>668330</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="5">
+        <v>3</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="L22" s="56"/>
-    </row>
-    <row r="23" spans="1:12" s="36" customFormat="1">
-      <c r="A23" s="31">
-        <v>151302474</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="32">
-        <v>20</v>
-      </c>
-      <c r="D23" s="35">
-        <v>6521</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" s="35">
-        <v>5</v>
-      </c>
-      <c r="I23" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="35">
+      <c r="K44" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="36" customFormat="1">
+      <c r="A45" s="37"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+    </row>
+    <row r="46" spans="1:11" s="36" customFormat="1">
+      <c r="A46" s="11">
+        <v>151306604</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="32">
+        <v>10</v>
+      </c>
+      <c r="D46" s="33">
+        <v>9703</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46" s="31">
+        <v>681149</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" s="35">
+        <v>1</v>
+      </c>
+      <c r="I46" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="35">
         <v>0</v>
       </c>
-      <c r="K23" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="L23" s="56"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="11"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-    </row>
-    <row r="25" spans="1:12" s="36" customFormat="1">
-      <c r="A25" s="31">
-        <v>151302474</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="32">
-        <v>30</v>
-      </c>
-      <c r="D25" s="32">
-        <v>4048</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="32">
-        <v>630059</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="H25" s="32">
-        <v>10</v>
-      </c>
-      <c r="I25" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="32">
+      <c r="K46" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+    </row>
+    <row r="48" spans="1:11" s="36" customFormat="1">
+      <c r="A48" s="11">
+        <v>151288108</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="32">
+        <v>10</v>
+      </c>
+      <c r="D48" s="33">
+        <v>1908</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" s="35">
+        <v>10</v>
+      </c>
+      <c r="I48" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="35">
         <v>0</v>
       </c>
-      <c r="K25" s="32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="11"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" s="36" customFormat="1">
-      <c r="A27" s="31">
-        <v>151294161</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="32">
-        <v>10</v>
-      </c>
-      <c r="D27" s="59">
-        <v>5738</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="F27" s="31">
-        <v>632215</v>
-      </c>
-      <c r="G27" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="H27" s="32">
-        <v>14</v>
-      </c>
-      <c r="I27" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="32">
+      <c r="K48" s="35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="36" customFormat="1">
+      <c r="A49" s="11"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+    </row>
+    <row r="50" spans="1:13" s="36" customFormat="1">
+      <c r="A50" s="6">
+        <v>151288592</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="2">
+        <v>10</v>
+      </c>
+      <c r="D50" s="3">
+        <v>8463</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F50" s="6">
+        <v>687349</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H50" s="5">
+        <v>10</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="5">
         <v>0</v>
       </c>
-      <c r="K27" s="31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="12" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="11"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="11">
-        <v>151110116</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="K50" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="36" customFormat="1">
+      <c r="A51" s="31"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+    </row>
+    <row r="52" spans="1:13" s="36" customFormat="1">
+      <c r="A52" s="6">
+        <v>151242082</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="2">
+        <v>10</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F52" s="6">
+        <v>691660</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H52" s="5">
+        <v>1</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="5">
+        <v>0</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+    </row>
+    <row r="54" spans="1:13" s="47" customFormat="1">
+      <c r="A54" s="11">
+        <v>151280693</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="32">
+        <v>40</v>
+      </c>
+      <c r="D54" s="33">
+        <v>565</v>
+      </c>
+      <c r="E54" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" s="35">
+        <v>100</v>
+      </c>
+      <c r="I54" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="35">
+        <v>0</v>
+      </c>
+      <c r="K54" s="35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="M55" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="13">
-        <v>3450</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="13">
-        <v>634355</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="13">
-        <v>10</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="13">
-        <v>10</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="12"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="2">
-        <v>151008992</v>
-      </c>
-      <c r="B31" s="2" t="s">
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="18">
+        <v>151264212</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="2">
-        <v>20</v>
-      </c>
-      <c r="D31" s="10">
-        <v>4726</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="2">
-        <v>635655</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="2">
-        <v>10</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" s="2">
+      <c r="C56" s="18">
+        <v>10</v>
+      </c>
+      <c r="D56" s="52">
+        <v>10710</v>
+      </c>
+      <c r="E56" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F56" s="18">
+        <v>704681</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H56" s="19">
+        <v>1</v>
+      </c>
+      <c r="I56" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="19">
         <v>0</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" s="36" customFormat="1">
-      <c r="A33" s="31">
-        <v>151302474</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="32">
-        <v>40</v>
-      </c>
-      <c r="D33" s="63">
-        <v>2818</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F33" s="31">
-        <v>635656</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="H33" s="32">
-        <v>15</v>
-      </c>
-      <c r="I33" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="J33" s="32">
-        <v>0</v>
-      </c>
-      <c r="K33" s="32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" s="36" customFormat="1">
-      <c r="A35" s="31">
-        <v>151302474</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="32">
-        <v>50</v>
-      </c>
-      <c r="D35" s="59">
-        <v>3555</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" s="31">
-        <v>646872</v>
-      </c>
-      <c r="G35" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="H35" s="32">
-        <v>10</v>
-      </c>
-      <c r="I35" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" s="32">
-        <v>0</v>
-      </c>
-      <c r="K35" s="31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="11"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="11"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="11">
-        <v>151110116</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="1">
-        <v>40</v>
-      </c>
-      <c r="D37" s="26">
-        <v>112</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="12">
-        <v>50</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="12">
-        <v>0</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="23">
-        <v>151197029</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="2">
-        <v>60</v>
-      </c>
-      <c r="D39" s="3">
-        <v>3510</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" s="2">
-        <v>663091</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H39" s="5">
-        <v>2</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39" s="5">
-        <v>0</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="6">
-        <v>151090350</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="2">
-        <v>10</v>
-      </c>
-      <c r="D41" s="3">
-        <v>5130</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F41" s="2">
-        <v>663092</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H41" s="5">
-        <v>2</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J41" s="5">
-        <v>0</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-    </row>
-    <row r="43" spans="1:11" s="36" customFormat="1">
-      <c r="A43" s="6">
-        <v>151282825</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="2">
-        <v>10</v>
-      </c>
-      <c r="D43" s="3">
-        <v>6615</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F43" s="2">
-        <v>663093</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H43" s="5">
-        <v>2</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J43" s="5">
-        <v>0</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-    </row>
-    <row r="45" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A45" s="6">
-        <v>151283046</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="2">
-        <v>10</v>
-      </c>
-      <c r="D45" s="3">
-        <v>34000</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F45" s="2">
-        <v>667226</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H45" s="5">
-        <v>2</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" s="5">
-        <v>2</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="6">
-        <v>151282825</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="2">
-        <v>40</v>
-      </c>
-      <c r="D47" s="3">
-        <v>6000</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F47" s="2">
-        <v>668330</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H47" s="5">
-        <v>3</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="5">
-        <v>0</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="36" customFormat="1">
-      <c r="A48" s="37"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-    </row>
-    <row r="49" spans="1:13" s="36" customFormat="1">
-      <c r="A49" s="11">
-        <v>151280693</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="32">
-        <v>60</v>
-      </c>
-      <c r="D49" s="33">
-        <v>9703</v>
-      </c>
-      <c r="E49" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="F49" s="31">
-        <v>681149</v>
-      </c>
-      <c r="G49" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="H49" s="35">
-        <v>2</v>
-      </c>
-      <c r="I49" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="35">
-        <v>0</v>
-      </c>
-      <c r="K49" s="34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" s="36" customFormat="1">
-      <c r="A50" s="11">
-        <v>151306604</v>
-      </c>
-      <c r="B50" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="32">
-        <v>10</v>
-      </c>
-      <c r="D50" s="33">
-        <v>9703</v>
-      </c>
-      <c r="E50" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="F50" s="31">
-        <v>681149</v>
-      </c>
-      <c r="G50" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="35">
-        <v>1</v>
-      </c>
-      <c r="I50" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J50" s="35">
-        <v>0</v>
-      </c>
-      <c r="K50" s="34" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-    </row>
-    <row r="52" spans="1:13" s="36" customFormat="1">
-      <c r="A52" s="11">
-        <v>151288108</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="32">
-        <v>10</v>
-      </c>
-      <c r="D52" s="33">
-        <v>1908</v>
-      </c>
-      <c r="E52" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F52" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G52" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="H52" s="35">
-        <v>10</v>
-      </c>
-      <c r="I52" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="35">
-        <v>0</v>
-      </c>
-      <c r="K52" s="35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" s="36" customFormat="1">
-      <c r="A53" s="11"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-    </row>
-    <row r="54" spans="1:13" s="36" customFormat="1">
-      <c r="A54" s="6">
-        <v>151288592</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="2">
-        <v>10</v>
-      </c>
-      <c r="D54" s="3">
-        <v>8463</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F54" s="6">
-        <v>687349</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H54" s="5">
-        <v>10</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="5">
-        <v>0</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" s="36" customFormat="1">
-      <c r="A55" s="31"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-    </row>
-    <row r="56" spans="1:13" s="36" customFormat="1">
-      <c r="A56" s="6">
-        <v>151242082</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="2">
-        <v>10</v>
-      </c>
-      <c r="D56" s="3">
-        <v>1600</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F56" s="6">
-        <v>691660</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H56" s="5">
-        <v>1</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" s="5">
-        <v>0</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>79</v>
+      <c r="K56" s="19" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3537,45 +3456,45 @@
       <c r="D57" s="26"/>
       <c r="E57" s="27"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
+      <c r="G57" s="57"/>
       <c r="H57" s="12"/>
       <c r="I57" s="1"/>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
     </row>
-    <row r="58" spans="1:13" s="47" customFormat="1">
-      <c r="A58" s="11">
-        <v>151280693</v>
-      </c>
-      <c r="B58" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="32">
+    <row r="58" spans="1:13">
+      <c r="A58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="26">
+        <v>4995</v>
+      </c>
+      <c r="E58" s="27">
+        <v>44223</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="33">
-        <v>565</v>
-      </c>
-      <c r="E58" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="F58" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G58" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H58" s="35">
-        <v>100</v>
-      </c>
-      <c r="I58" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J58" s="35">
+      <c r="H58" s="12">
+        <v>2</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="12">
         <v>0</v>
       </c>
-      <c r="K58" s="35" t="s">
-        <v>89</v>
+      <c r="K58" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3590,43 +3509,40 @@
       <c r="I59" s="1"/>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
-      <c r="M59" s="25" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="18">
-        <v>151264212</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="18">
-        <v>10</v>
-      </c>
-      <c r="D60" s="52">
-        <v>10710</v>
-      </c>
-      <c r="E60" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="F60" s="18">
-        <v>704681</v>
-      </c>
-      <c r="G60" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H60" s="19">
-        <v>1</v>
-      </c>
-      <c r="I60" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J60" s="19">
+      <c r="A60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="26">
+        <v>4245</v>
+      </c>
+      <c r="E60" s="27">
+        <v>44223</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H60" s="12">
+        <v>2</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="12">
         <v>0</v>
       </c>
-      <c r="K60" s="19" t="s">
-        <v>82</v>
+      <c r="K60" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3636,36 +3552,36 @@
       <c r="D61" s="26"/>
       <c r="E61" s="27"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="57"/>
+      <c r="G61" s="1"/>
       <c r="H61" s="12"/>
       <c r="I61" s="1"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="1" t="s">
-        <v>38</v>
+      <c r="A62" s="21">
+        <v>151113088</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>28</v>
+      <c r="C62" s="1">
+        <v>10</v>
       </c>
       <c r="D62" s="26">
-        <v>4995</v>
+        <v>1896</v>
       </c>
       <c r="E62" s="27">
-        <v>44223</v>
+        <v>44487</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H62" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>12</v>
@@ -3674,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3690,401 +3606,305 @@
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="26">
-        <v>4245</v>
-      </c>
-      <c r="E64" s="27">
-        <v>44223</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H64" s="12">
-        <v>2</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J64" s="12">
+    <row r="64" spans="1:13" s="36" customFormat="1">
+      <c r="A64" s="31">
+        <v>151280693</v>
+      </c>
+      <c r="B64" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="54">
+        <v>30</v>
+      </c>
+      <c r="D64" s="54">
+        <v>45000</v>
+      </c>
+      <c r="E64" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="F64" s="54">
+        <v>719031</v>
+      </c>
+      <c r="G64" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" s="55">
+        <v>20</v>
+      </c>
+      <c r="I64" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="55">
+        <v>14</v>
+      </c>
+      <c r="K64" s="55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="36" customFormat="1">
+      <c r="A65" s="6">
+        <v>151308917</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="7">
+        <v>10</v>
+      </c>
+      <c r="D65" s="7">
+        <v>45000</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F65" s="7">
+        <v>719031</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" s="61">
+        <v>1</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="61">
+        <v>1</v>
+      </c>
+      <c r="K65" s="61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="39"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="45"/>
+      <c r="K66" s="45"/>
+    </row>
+    <row r="67" spans="1:11" s="36" customFormat="1">
+      <c r="A67" s="37">
+        <v>151306716</v>
+      </c>
+      <c r="B67" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="32">
+        <v>10</v>
+      </c>
+      <c r="D67" s="59">
+        <v>9999</v>
+      </c>
+      <c r="E67" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F67" s="31">
+        <v>719381</v>
+      </c>
+      <c r="G67" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H67" s="32">
+        <v>5</v>
+      </c>
+      <c r="I67" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="32">
+        <v>5</v>
+      </c>
+      <c r="K67" s="31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="11"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="11"/>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="23">
+        <v>151308917</v>
+      </c>
+      <c r="B69" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="58">
+        <v>20</v>
+      </c>
+      <c r="D69" s="7">
+        <v>6800</v>
+      </c>
+      <c r="E69" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="F69" s="7">
+        <v>720138</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H69" s="58">
+        <v>1</v>
+      </c>
+      <c r="I69" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="58">
         <v>0</v>
       </c>
-      <c r="K64" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="21">
-        <v>151113088</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="1">
-        <v>10</v>
-      </c>
-      <c r="D66" s="26">
-        <v>1896</v>
-      </c>
-      <c r="E66" s="27">
-        <v>44487</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H66" s="12">
-        <v>5</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J66" s="12">
+      <c r="K69" s="58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="1"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="40"/>
+      <c r="K70" s="40"/>
+    </row>
+    <row r="71" spans="1:11" s="36" customFormat="1">
+      <c r="A71" s="11">
+        <v>151280693</v>
+      </c>
+      <c r="B71" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="32">
+        <v>10</v>
+      </c>
+      <c r="D71" s="32">
+        <v>2490</v>
+      </c>
+      <c r="E71" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="F71" s="31">
+        <v>724214</v>
+      </c>
+      <c r="G71" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H71" s="32">
+        <v>20</v>
+      </c>
+      <c r="I71" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="32">
         <v>0</v>
       </c>
-      <c r="K66" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-    </row>
-    <row r="68" spans="1:11" s="36" customFormat="1">
-      <c r="A68" s="31">
-        <v>151280693</v>
-      </c>
-      <c r="B68" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" s="54">
-        <v>30</v>
-      </c>
-      <c r="D68" s="54">
-        <v>45000</v>
-      </c>
-      <c r="E68" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="F68" s="54">
-        <v>719031</v>
-      </c>
-      <c r="G68" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="H68" s="55">
-        <v>20</v>
-      </c>
-      <c r="I68" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" s="55">
-        <v>15</v>
-      </c>
-      <c r="K68" s="55" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="11"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="45"/>
-      <c r="K69" s="45"/>
-    </row>
-    <row r="70" spans="1:11" s="36" customFormat="1">
-      <c r="A70" s="6">
-        <v>151293864</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="2">
-        <v>20</v>
-      </c>
-      <c r="D70" s="20">
-        <v>9999</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F70" s="6">
-        <v>719381</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H70" s="2">
-        <v>5</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70" s="2">
-        <v>0</v>
-      </c>
-      <c r="K70" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" s="36" customFormat="1">
-      <c r="A71" s="37">
-        <v>151306716</v>
-      </c>
-      <c r="B71" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="32">
-        <v>10</v>
-      </c>
-      <c r="D71" s="59">
-        <v>9999</v>
-      </c>
-      <c r="E71" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="F71" s="31">
-        <v>719381</v>
-      </c>
-      <c r="G71" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="H71" s="32">
-        <v>5</v>
-      </c>
-      <c r="I71" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J71" s="32">
-        <v>5</v>
-      </c>
-      <c r="K71" s="31" t="s">
-        <v>116</v>
+      <c r="K71" s="32" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="11"/>
+      <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
-      <c r="K72" s="11"/>
+      <c r="K72" s="1"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="6">
-        <v>151293864</v>
-      </c>
-      <c r="B73" s="58" t="s">
+      <c r="A73" s="1">
+        <v>16063532</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="1">
+        <v>10</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2900</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F73" s="1">
+        <v>725828</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H73" s="1">
+        <v>10</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="6">
+        <v>151294292</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="58">
-        <v>10</v>
-      </c>
-      <c r="D73" s="7">
-        <v>6800</v>
-      </c>
-      <c r="E73" s="58" t="s">
+      <c r="C75" s="2">
+        <v>10</v>
+      </c>
+      <c r="D75" s="2">
         <v>100</v>
       </c>
-      <c r="F73" s="7">
-        <v>720138</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H73" s="58">
-        <v>2</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J73" s="58">
+      <c r="E75" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F75" s="2">
+        <v>728488</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H75" s="2">
+        <v>61</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J75" s="2">
         <v>0</v>
       </c>
-      <c r="K73" s="58" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="1"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="40"/>
-      <c r="G74" s="40"/>
-      <c r="H74" s="40"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="40"/>
-      <c r="K74" s="40"/>
-    </row>
-    <row r="75" spans="1:11" s="36" customFormat="1">
-      <c r="A75" s="11">
-        <v>151280693</v>
-      </c>
-      <c r="B75" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" s="32">
-        <v>10</v>
-      </c>
-      <c r="D75" s="32">
-        <v>2490</v>
-      </c>
-      <c r="E75" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="F75" s="31">
-        <v>724214</v>
-      </c>
-      <c r="G75" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="H75" s="32">
-        <v>20</v>
-      </c>
-      <c r="I75" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J75" s="32">
-        <v>0</v>
-      </c>
-      <c r="K75" s="32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="1">
-        <v>16063532</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" s="1">
-        <v>10</v>
-      </c>
-      <c r="D77" s="1">
-        <v>2900</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F77" s="1">
-        <v>725828</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H77" s="1">
-        <v>10</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J77" s="1">
-        <v>0</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="6">
-        <v>151294292</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" s="2">
-        <v>10</v>
-      </c>
-      <c r="D79" s="2">
-        <v>100</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F79" s="2">
-        <v>728488</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H79" s="2">
-        <v>61</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J79" s="2">
-        <v>0</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="K75" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="6:6">
-      <c r="F82" s="17"/>
+    <row r="78" spans="1:11">
+      <c r="F78" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4094,10 +3914,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M82"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5375,20 +5195,20 @@
       <c r="K7" s="43"/>
     </row>
     <row r="8" spans="1:11" s="36" customFormat="1">
-      <c r="A8" s="23">
-        <v>151290901</v>
+      <c r="A8" s="6">
+        <v>151308917</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D8" s="10">
         <v>2400</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F8" s="2">
         <v>615181</v>
@@ -5397,16 +5217,16 @@
         <v>17</v>
       </c>
       <c r="H8" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J8" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5424,589 +5244,564 @@
     </row>
     <row r="10" spans="1:11" s="36" customFormat="1">
       <c r="A10" s="23">
-        <v>151296060</v>
-      </c>
-      <c r="B10" s="60" t="s">
+        <v>151305308</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="60">
-        <v>10</v>
-      </c>
-      <c r="D10" s="60">
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
         <v>4831</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="2">
+        <v>615698</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="2">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="36" customFormat="1">
+      <c r="A11" s="6">
+        <v>151308917</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4831</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="2">
+        <v>615698</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="2">
+        <v>20</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="2">
+        <v>20</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="11"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="11">
+        <v>151296157</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>20</v>
+      </c>
+      <c r="D13" s="26">
+        <v>4700</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="60">
-        <v>615698</v>
-      </c>
-      <c r="G10" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="60">
-        <v>15</v>
-      </c>
-      <c r="I10" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="60">
+      <c r="F13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="12">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="12">
         <v>0</v>
       </c>
-      <c r="K10" s="60" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="36" customFormat="1">
-      <c r="A11" s="31">
-        <v>151302474</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="32">
-        <v>10</v>
-      </c>
-      <c r="D11" s="32">
-        <v>4831</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="32">
-        <v>615698</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="32">
-        <v>5</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="32">
+      <c r="K13" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="11">
+        <v>151296157</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="13">
+        <v>3700</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="13">
+        <v>615840</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="13">
+        <v>2</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="13">
         <v>0</v>
       </c>
-      <c r="K11" s="32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="36" customFormat="1">
-      <c r="A12" s="23">
-        <v>151305308</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="K15" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="15"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="11">
+        <v>151280693</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1">
+        <v>100</v>
+      </c>
+      <c r="D17" s="26">
+        <v>600</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="12">
+        <v>10</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" s="36" customFormat="1">
+      <c r="A19" s="11">
+        <v>151311194</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="32">
+        <v>10</v>
+      </c>
+      <c r="D19" s="32">
+        <v>5614</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="32">
+        <v>616026</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="32">
+        <v>6</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="32">
+        <v>1</v>
+      </c>
+      <c r="K19" s="35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="36" customFormat="1">
+      <c r="A20" s="11"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="35"/>
+    </row>
+    <row r="21" spans="1:12" s="36" customFormat="1">
+      <c r="A21" s="6">
+        <v>151308917</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2">
-        <v>4831</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="2">
-        <v>615698</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="2">
-        <v>15</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="2">
-        <v>12</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="11"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="11">
-        <v>151296157</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1">
-        <v>20</v>
-      </c>
-      <c r="D14" s="26">
-        <v>4700</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="12">
-        <v>2</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="12">
-        <v>0</v>
-      </c>
-      <c r="K14" s="12" t="s">
+      <c r="C21" s="2">
+        <v>80</v>
+      </c>
+      <c r="D21" s="5">
+        <v>6521</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="5">
+        <v>10</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="5">
+        <v>10</v>
+      </c>
+      <c r="K21" s="5" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="11">
-        <v>151296157</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1">
-        <v>10</v>
-      </c>
-      <c r="D16" s="13">
-        <v>3700</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="13">
-        <v>615840</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="13">
-        <v>2</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="13">
-        <v>0</v>
-      </c>
-      <c r="K16" s="13" t="s">
+      <c r="L21" s="56"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="11"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:12" s="36" customFormat="1">
+      <c r="A23" s="23">
+        <v>151308917</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2">
+        <v>70</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4048</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="15"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="11">
-        <v>151280693</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1">
-        <v>100</v>
-      </c>
-      <c r="D18" s="26">
-        <v>600</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="12">
-        <v>10</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="12">
-        <v>0</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-    </row>
-    <row r="20" spans="1:12" s="36" customFormat="1">
-      <c r="A20" s="37">
-        <v>151301248</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="32">
-        <v>10</v>
-      </c>
-      <c r="D20" s="32">
-        <v>5614</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="32">
-        <v>616026</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="32">
-        <v>10</v>
-      </c>
-      <c r="I20" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="32">
-        <v>0</v>
-      </c>
-      <c r="K20" s="35" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" s="36" customFormat="1">
-      <c r="A22" s="23">
-        <v>151300858</v>
-      </c>
-      <c r="B22" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="60">
-        <v>10</v>
-      </c>
-      <c r="D22" s="61">
-        <v>6521</v>
-      </c>
-      <c r="E22" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" s="61">
-        <v>10</v>
-      </c>
-      <c r="I22" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="61">
-        <v>0</v>
-      </c>
-      <c r="K22" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="L22" s="56"/>
-    </row>
-    <row r="23" spans="1:12" s="36" customFormat="1">
-      <c r="A23" s="31">
-        <v>151302474</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="32">
-        <v>20</v>
-      </c>
-      <c r="D23" s="35">
-        <v>6521</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" s="35">
-        <v>5</v>
-      </c>
-      <c r="I23" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="35">
-        <v>0</v>
-      </c>
-      <c r="K23" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="L23" s="56"/>
+      <c r="F23" s="2">
+        <v>630059</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="2">
+        <v>10</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="2">
+        <v>10</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="11"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="12"/>
+      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:12" s="36" customFormat="1">
-      <c r="A25" s="31">
-        <v>151302474</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="32">
-        <v>30</v>
-      </c>
-      <c r="D25" s="32">
-        <v>4048</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="32">
-        <v>630059</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="H25" s="32">
-        <v>10</v>
-      </c>
-      <c r="I25" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="32">
-        <v>0</v>
-      </c>
-      <c r="K25" s="32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="A25" s="6">
+        <v>151308917</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="2">
+        <v>50</v>
+      </c>
+      <c r="D25" s="20">
+        <v>5738</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="6">
+        <v>632215</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="2">
+        <v>2</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="2">
+        <v>2</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="12" customHeight="1">
       <c r="A26" s="11"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" s="36" customFormat="1">
-      <c r="A27" s="31">
-        <v>151294161</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="32">
-        <v>10</v>
-      </c>
-      <c r="D27" s="59">
-        <v>5738</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="F27" s="31">
-        <v>632215</v>
-      </c>
-      <c r="G27" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="H27" s="32">
-        <v>14</v>
-      </c>
-      <c r="I27" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="32">
+      <c r="D26" s="16"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="11">
+        <v>151110116</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1">
+        <v>60</v>
+      </c>
+      <c r="D27" s="13">
+        <v>3450</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="13">
+        <v>634355</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="13">
+        <v>10</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="13">
+        <v>10</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="2">
+        <v>151008992</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="2">
+        <v>20</v>
+      </c>
+      <c r="D29" s="10">
+        <v>4726</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="2">
+        <v>635655</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="2">
+        <v>10</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="2">
         <v>0</v>
       </c>
-      <c r="K27" s="31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="12" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="11"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="11">
-        <v>151110116</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="1">
-        <v>60</v>
-      </c>
-      <c r="D29" s="13">
-        <v>3450</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="13">
-        <v>634355</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="13">
-        <v>10</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="13">
-        <v>10</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="12"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="2">
-        <v>151008992</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="K29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="10">
-        <v>4726</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="2">
-        <v>635655</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="2">
-        <v>10</v>
-      </c>
-      <c r="I31" s="2" t="s">
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" s="36" customFormat="1">
+      <c r="A31" s="31">
+        <v>151302474</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="32">
+        <v>40</v>
+      </c>
+      <c r="D31" s="60">
+        <v>2818</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" s="31">
+        <v>635656</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="32">
+        <v>15</v>
+      </c>
+      <c r="I31" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="32">
         <v>0</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>20</v>
+      <c r="K31" s="32" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="46"/>
+      <c r="C32" s="1"/>
       <c r="D32" s="28"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -6021,127 +5816,127 @@
         <v>10</v>
       </c>
       <c r="C33" s="32">
-        <v>40</v>
-      </c>
-      <c r="D33" s="63">
-        <v>2818</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>93</v>
+        <v>50</v>
+      </c>
+      <c r="D33" s="59">
+        <v>3555</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>92</v>
       </c>
       <c r="F33" s="31">
-        <v>635656</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>61</v>
+        <v>646872</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>72</v>
       </c>
       <c r="H33" s="32">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I33" s="32" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="J33" s="32">
         <v>0</v>
       </c>
-      <c r="K33" s="32" t="s">
-        <v>112</v>
+      <c r="K33" s="31" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="1"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="1"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="11"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" s="36" customFormat="1">
-      <c r="A35" s="31">
-        <v>151302474</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="32">
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="11">
+        <v>151110116</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1">
+        <v>40</v>
+      </c>
+      <c r="D35" s="26">
+        <v>112</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="12">
         <v>50</v>
       </c>
-      <c r="D35" s="59">
-        <v>3555</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" s="31">
-        <v>646872</v>
-      </c>
-      <c r="G35" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="H35" s="32">
-        <v>10</v>
-      </c>
-      <c r="I35" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" s="32">
+      <c r="I35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="12">
         <v>0</v>
       </c>
-      <c r="K35" s="31" t="s">
-        <v>112</v>
+      <c r="K35" s="12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="11"/>
+      <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="1"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="12"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="11"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="11">
-        <v>151110116</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="1">
-        <v>40</v>
-      </c>
-      <c r="D37" s="26">
-        <v>112</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="12">
-        <v>50</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="12">
+      <c r="A37" s="23">
+        <v>151197029</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="2">
+        <v>60</v>
+      </c>
+      <c r="D37" s="3">
+        <v>3510</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="2">
+        <v>663091</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="5">
+        <v>2</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="5">
         <v>0</v>
       </c>
-      <c r="K37" s="12" t="s">
-        <v>65</v>
+      <c r="K37" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -6158,26 +5953,26 @@
       <c r="K38" s="12"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="23">
-        <v>151197029</v>
+      <c r="A39" s="6">
+        <v>151090350</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="2">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D39" s="3">
-        <v>3510</v>
+        <v>5130</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F39" s="2">
-        <v>663091</v>
+        <v>663092</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H39" s="5">
         <v>2</v>
@@ -6189,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -6205,27 +6000,27 @@
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" s="36" customFormat="1">
       <c r="A41" s="6">
-        <v>151090350</v>
+        <v>151308917</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D41" s="3">
-        <v>5130</v>
+        <v>6615</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="F41" s="2">
-        <v>663092</v>
+        <v>663093</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H41" s="5">
         <v>2</v>
@@ -6234,13 +6029,13 @@
         <v>12</v>
       </c>
       <c r="J41" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="13.5" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -6253,9 +6048,9 @@
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" s="36" customFormat="1">
+    <row r="43" spans="1:11" ht="13.5" customHeight="1">
       <c r="A43" s="6">
-        <v>151282825</v>
+        <v>151283046</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>16</v>
@@ -6264,16 +6059,16 @@
         <v>10</v>
       </c>
       <c r="D43" s="3">
-        <v>6615</v>
+        <v>34000</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>87</v>
       </c>
       <c r="F43" s="2">
-        <v>663093</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>52</v>
+        <v>667226</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H43" s="5">
         <v>2</v>
@@ -6282,10 +6077,10 @@
         <v>12</v>
       </c>
       <c r="J43" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="13.5" customHeight="1">
@@ -6301,126 +6096,128 @@
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" ht="13.5" customHeight="1">
+    <row r="45" spans="1:11">
       <c r="A45" s="6">
-        <v>151283046</v>
+        <v>151282825</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D45" s="3">
-        <v>34000</v>
+        <v>6000</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>87</v>
       </c>
       <c r="F45" s="2">
-        <v>667226</v>
-      </c>
-      <c r="G45" s="6" t="s">
+        <v>668330</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" s="5">
+        <v>3</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="5">
+        <v>0</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="36" customFormat="1">
+      <c r="A46" s="37"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
+    </row>
+    <row r="47" spans="1:11" s="36" customFormat="1">
+      <c r="A47" s="11">
+        <v>151306604</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="32">
+        <v>10</v>
+      </c>
+      <c r="D47" s="33">
+        <v>9703</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F47" s="31">
+        <v>681149</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H47" s="35">
+        <v>1</v>
+      </c>
+      <c r="I47" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="35">
+        <v>0</v>
+      </c>
+      <c r="K47" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="H45" s="5">
-        <v>2</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" s="5">
-        <v>2</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="6">
-        <v>151282825</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="2">
-        <v>40</v>
-      </c>
-      <c r="D47" s="3">
-        <v>6000</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F47" s="2">
-        <v>668330</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H47" s="5">
-        <v>3</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="5">
-        <v>0</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="36" customFormat="1">
-      <c r="A48" s="37"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
     </row>
     <row r="49" spans="1:13" s="36" customFormat="1">
       <c r="A49" s="11">
-        <v>151280693</v>
+        <v>151288108</v>
       </c>
       <c r="B49" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="32">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D49" s="33">
-        <v>9703</v>
+        <v>1908</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="F49" s="31">
-        <v>681149</v>
-      </c>
-      <c r="G49" s="31" t="s">
-        <v>76</v>
+        <v>90</v>
+      </c>
+      <c r="F49" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="32" t="s">
+        <v>35</v>
       </c>
       <c r="H49" s="35">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I49" s="32" t="s">
         <v>12</v>
@@ -6428,748 +6225,664 @@
       <c r="J49" s="35">
         <v>0</v>
       </c>
-      <c r="K49" s="34" t="s">
-        <v>92</v>
+      <c r="K49" s="35" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:13" s="36" customFormat="1">
-      <c r="A50" s="11">
-        <v>151306604</v>
-      </c>
-      <c r="B50" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="32">
-        <v>10</v>
-      </c>
-      <c r="D50" s="33">
-        <v>9703</v>
-      </c>
-      <c r="E50" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="F50" s="31">
-        <v>681149</v>
-      </c>
-      <c r="G50" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="35">
+      <c r="A50" s="11"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+    </row>
+    <row r="51" spans="1:13" s="36" customFormat="1">
+      <c r="A51" s="6">
+        <v>151288592</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="2">
+        <v>10</v>
+      </c>
+      <c r="D51" s="3">
+        <v>8463</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F51" s="6">
+        <v>687349</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H51" s="5">
+        <v>10</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="5">
+        <v>0</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="36" customFormat="1">
+      <c r="A52" s="31"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+    </row>
+    <row r="53" spans="1:13" s="36" customFormat="1">
+      <c r="A53" s="6">
+        <v>151242082</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="2">
+        <v>10</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F53" s="6">
+        <v>691660</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H53" s="5">
         <v>1</v>
       </c>
-      <c r="I50" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J50" s="35">
+      <c r="I53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="5">
         <v>0</v>
       </c>
-      <c r="K50" s="34" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="39" t="s">
+      <c r="K53" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+    </row>
+    <row r="55" spans="1:13" s="47" customFormat="1">
+      <c r="A55" s="11">
+        <v>151280693</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="32">
+        <v>40</v>
+      </c>
+      <c r="D55" s="33">
+        <v>565</v>
+      </c>
+      <c r="E55" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G55" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" s="35">
+        <v>100</v>
+      </c>
+      <c r="I55" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="35">
+        <v>0</v>
+      </c>
+      <c r="K55" s="35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="M56" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-    </row>
-    <row r="52" spans="1:13" s="36" customFormat="1">
-      <c r="A52" s="11">
-        <v>151288108</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="32">
-        <v>10</v>
-      </c>
-      <c r="D52" s="33">
-        <v>1908</v>
-      </c>
-      <c r="E52" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F52" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G52" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="H52" s="35">
-        <v>10</v>
-      </c>
-      <c r="I52" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="35">
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="18">
+        <v>151264212</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="18">
+        <v>10</v>
+      </c>
+      <c r="D57" s="52">
+        <v>10710</v>
+      </c>
+      <c r="E57" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F57" s="18">
+        <v>704681</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H57" s="19">
+        <v>1</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="19">
         <v>0</v>
       </c>
-      <c r="K52" s="35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" s="36" customFormat="1">
-      <c r="A53" s="11"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-    </row>
-    <row r="54" spans="1:13" s="36" customFormat="1">
-      <c r="A54" s="6">
-        <v>151288592</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="K57" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="26">
+        <v>4995</v>
+      </c>
+      <c r="E59" s="27">
+        <v>44223</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H59" s="12">
+        <v>2</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="12">
+        <v>0</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="26">
+        <v>4245</v>
+      </c>
+      <c r="E61" s="27">
+        <v>44223</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H61" s="12">
+        <v>2</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="12">
+        <v>0</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="21">
+        <v>151113088</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="1">
+        <v>10</v>
+      </c>
+      <c r="D63" s="26">
+        <v>1896</v>
+      </c>
+      <c r="E63" s="27">
+        <v>44487</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" s="12">
+        <v>5</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="12">
+        <v>0</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+    </row>
+    <row r="65" spans="1:11" s="36" customFormat="1">
+      <c r="A65" s="31">
+        <v>151280693</v>
+      </c>
+      <c r="B65" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="54">
+        <v>30</v>
+      </c>
+      <c r="D65" s="54">
+        <v>45000</v>
+      </c>
+      <c r="E65" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="F65" s="54">
+        <v>719031</v>
+      </c>
+      <c r="G65" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" s="55">
+        <v>20</v>
+      </c>
+      <c r="I65" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="55">
+        <v>14</v>
+      </c>
+      <c r="K65" s="55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="36" customFormat="1">
+      <c r="A66" s="6">
+        <v>151308917</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="2">
-        <v>10</v>
-      </c>
-      <c r="D54" s="3">
-        <v>8463</v>
-      </c>
-      <c r="E54" s="4" t="s">
+      <c r="C66" s="7">
+        <v>10</v>
+      </c>
+      <c r="D66" s="7">
+        <v>45000</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F66" s="7">
+        <v>719031</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" s="61">
+        <v>1</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" s="61">
+        <v>1</v>
+      </c>
+      <c r="K66" s="61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="39"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="45"/>
+      <c r="K67" s="45"/>
+    </row>
+    <row r="68" spans="1:11" s="36" customFormat="1">
+      <c r="A68" s="37">
+        <v>151306716</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="32">
+        <v>10</v>
+      </c>
+      <c r="D68" s="59">
+        <v>9999</v>
+      </c>
+      <c r="E68" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="F54" s="6">
-        <v>687349</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H54" s="5">
-        <v>10</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="5">
-        <v>0</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" s="36" customFormat="1">
-      <c r="A55" s="31"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-    </row>
-    <row r="56" spans="1:13" s="36" customFormat="1">
-      <c r="A56" s="6">
-        <v>151242082</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="2">
-        <v>10</v>
-      </c>
-      <c r="D56" s="3">
-        <v>1600</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F56" s="6">
-        <v>691660</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H56" s="5">
-        <v>1</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" s="5">
-        <v>0</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-    </row>
-    <row r="58" spans="1:13" s="47" customFormat="1">
-      <c r="A58" s="11">
-        <v>151280693</v>
-      </c>
-      <c r="B58" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="32">
-        <v>40</v>
-      </c>
-      <c r="D58" s="33">
-        <v>565</v>
-      </c>
-      <c r="E58" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="F58" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G58" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H58" s="35">
-        <v>100</v>
-      </c>
-      <c r="I58" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J58" s="35">
-        <v>0</v>
-      </c>
-      <c r="K58" s="35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="M59" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="18">
-        <v>151264212</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="18">
-        <v>10</v>
-      </c>
-      <c r="D60" s="52">
-        <v>10710</v>
-      </c>
-      <c r="E60" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="F60" s="18">
-        <v>704681</v>
-      </c>
-      <c r="G60" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H60" s="19">
-        <v>1</v>
-      </c>
-      <c r="I60" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J60" s="19">
-        <v>0</v>
-      </c>
-      <c r="K60" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D62" s="26">
-        <v>4995</v>
-      </c>
-      <c r="E62" s="27">
-        <v>44223</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H62" s="12">
-        <v>2</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" s="12">
-        <v>0</v>
-      </c>
-      <c r="K62" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="26">
-        <v>4245</v>
-      </c>
-      <c r="E64" s="27">
-        <v>44223</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H64" s="12">
-        <v>2</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J64" s="12">
-        <v>0</v>
-      </c>
-      <c r="K64" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="21">
-        <v>151113088</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="1">
-        <v>10</v>
-      </c>
-      <c r="D66" s="26">
-        <v>1896</v>
-      </c>
-      <c r="E66" s="27">
-        <v>44487</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H66" s="12">
+      <c r="F68" s="31">
+        <v>719381</v>
+      </c>
+      <c r="G68" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H68" s="32">
         <v>5</v>
       </c>
-      <c r="I66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J66" s="12">
-        <v>0</v>
-      </c>
-      <c r="K66" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-    </row>
-    <row r="68" spans="1:11" s="36" customFormat="1">
-      <c r="A68" s="31">
-        <v>151280693</v>
-      </c>
-      <c r="B68" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" s="54">
-        <v>30</v>
-      </c>
-      <c r="D68" s="54">
-        <v>45000</v>
-      </c>
-      <c r="E68" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="F68" s="54">
-        <v>719031</v>
-      </c>
-      <c r="G68" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="H68" s="55">
-        <v>20</v>
-      </c>
-      <c r="I68" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" s="55">
-        <v>15</v>
-      </c>
-      <c r="K68" s="55" t="s">
-        <v>91</v>
+      <c r="I68" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="32">
+        <v>5</v>
+      </c>
+      <c r="K68" s="31" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="11"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="45"/>
-      <c r="K69" s="45"/>
-    </row>
-    <row r="70" spans="1:11" s="36" customFormat="1">
-      <c r="A70" s="6">
-        <v>151293864</v>
-      </c>
-      <c r="B70" s="2" t="s">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="11"/>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="23">
+        <v>151308917</v>
+      </c>
+      <c r="B70" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="58">
         <v>20</v>
       </c>
-      <c r="D70" s="20">
-        <v>9999</v>
-      </c>
-      <c r="E70" s="6" t="s">
+      <c r="D70" s="7">
+        <v>6800</v>
+      </c>
+      <c r="E70" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="F70" s="7">
+        <v>720138</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H70" s="58">
+        <v>1</v>
+      </c>
+      <c r="I70" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" s="58">
+        <v>0</v>
+      </c>
+      <c r="K70" s="58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="1"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="40"/>
+    </row>
+    <row r="72" spans="1:11" s="36" customFormat="1">
+      <c r="A72" s="11">
+        <v>151280693</v>
+      </c>
+      <c r="B72" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="32">
+        <v>10</v>
+      </c>
+      <c r="D72" s="32">
+        <v>2490</v>
+      </c>
+      <c r="E72" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="F72" s="31">
+        <v>724214</v>
+      </c>
+      <c r="G72" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H72" s="32">
+        <v>20</v>
+      </c>
+      <c r="I72" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72" s="32">
+        <v>0</v>
+      </c>
+      <c r="K72" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="1">
+        <v>16063532</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="1">
+        <v>10</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2900</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F74" s="1">
+        <v>725828</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H74" s="1">
+        <v>10</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="6">
+        <v>151294292</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="2">
+        <v>10</v>
+      </c>
+      <c r="D76" s="2">
         <v>100</v>
       </c>
-      <c r="F70" s="6">
-        <v>719381</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H70" s="2">
-        <v>5</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70" s="2">
+      <c r="E76" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F76" s="2">
+        <v>728488</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H76" s="2">
+        <v>61</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J76" s="2">
         <v>0</v>
       </c>
-      <c r="K70" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" s="36" customFormat="1">
-      <c r="A71" s="37">
-        <v>151306716</v>
-      </c>
-      <c r="B71" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="32">
-        <v>10</v>
-      </c>
-      <c r="D71" s="59">
-        <v>9999</v>
-      </c>
-      <c r="E71" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="F71" s="31">
-        <v>719381</v>
-      </c>
-      <c r="G71" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="H71" s="32">
-        <v>5</v>
-      </c>
-      <c r="I71" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J71" s="32">
-        <v>5</v>
-      </c>
-      <c r="K71" s="31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="11"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="11"/>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="6">
-        <v>151293864</v>
-      </c>
-      <c r="B73" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" s="58">
-        <v>10</v>
-      </c>
-      <c r="D73" s="7">
-        <v>6800</v>
-      </c>
-      <c r="E73" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="F73" s="7">
-        <v>720138</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H73" s="58">
-        <v>2</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J73" s="58">
-        <v>0</v>
-      </c>
-      <c r="K73" s="58" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="1"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="40"/>
-      <c r="G74" s="40"/>
-      <c r="H74" s="40"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="40"/>
-      <c r="K74" s="40"/>
-    </row>
-    <row r="75" spans="1:11" s="36" customFormat="1">
-      <c r="A75" s="11">
-        <v>151280693</v>
-      </c>
-      <c r="B75" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" s="32">
-        <v>10</v>
-      </c>
-      <c r="D75" s="32">
-        <v>2490</v>
-      </c>
-      <c r="E75" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="F75" s="31">
-        <v>724214</v>
-      </c>
-      <c r="G75" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="H75" s="32">
-        <v>20</v>
-      </c>
-      <c r="I75" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J75" s="32">
-        <v>0</v>
-      </c>
-      <c r="K75" s="32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="1">
-        <v>16063532</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" s="1">
-        <v>10</v>
-      </c>
-      <c r="D77" s="1">
-        <v>2900</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F77" s="1">
-        <v>725828</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H77" s="1">
-        <v>10</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J77" s="1">
-        <v>0</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>57</v>
+      <c r="K76" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="6">
-        <v>151294292</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" s="2">
-        <v>10</v>
-      </c>
-      <c r="D79" s="2">
-        <v>100</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F79" s="2">
-        <v>728488</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H79" s="2">
-        <v>61</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J79" s="2">
-        <v>0</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="6:6">
-      <c r="F82" s="17"/>
+      <c r="F79" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -977,7 +977,7 @@
   <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="114">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -360,6 +360,15 @@
   </si>
   <si>
     <t>19.06.2023</t>
+  </si>
+  <si>
+    <t>29.03.2023</t>
+  </si>
+  <si>
+    <t>13.05.2023</t>
+  </si>
+  <si>
+    <t>26.04.2023</t>
   </si>
 </sst>
 </file>
@@ -976,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3221,7 +3230,7 @@
     </row>
     <row r="48" spans="1:11" s="36" customFormat="1">
       <c r="A48" s="11">
-        <v>151288108</v>
+        <v>151314791</v>
       </c>
       <c r="B48" s="32" t="s">
         <v>10</v>
@@ -3233,7 +3242,7 @@
         <v>1908</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="F48" s="32" t="s">
         <v>34</v>
@@ -3242,16 +3251,16 @@
         <v>35</v>
       </c>
       <c r="H48" s="35">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I48" s="32" t="s">
         <v>12</v>
       </c>
       <c r="J48" s="35">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K48" s="35" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:13" s="36" customFormat="1">
@@ -3365,19 +3374,19 @@
     </row>
     <row r="54" spans="1:13" s="47" customFormat="1">
       <c r="A54" s="11">
-        <v>151280693</v>
+        <v>151314792</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="32">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D54" s="33">
         <v>565</v>
       </c>
       <c r="E54" s="34" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="F54" s="32" t="s">
         <v>36</v>
@@ -3392,10 +3401,10 @@
         <v>12</v>
       </c>
       <c r="J54" s="35">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K54" s="35" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:13">

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="118">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -369,6 +369,18 @@
   </si>
   <si>
     <t>26.04.2023</t>
+  </si>
+  <si>
+    <t>30.03.2023</t>
+  </si>
+  <si>
+    <t>20.04.2023</t>
+  </si>
+  <si>
+    <t>15.05.2023</t>
+  </si>
+  <si>
+    <t>28.06.2023</t>
   </si>
 </sst>
 </file>
@@ -449,7 +461,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -496,11 +508,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -677,6 +702,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -983,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2298,116 +2335,136 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="22"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" s="36" customFormat="1">
-      <c r="A10" s="6">
+    <row r="9" spans="1:11" s="36" customFormat="1">
+      <c r="A9" s="31">
+        <v>151315311</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="32">
+        <v>140</v>
+      </c>
+      <c r="D9" s="60">
+        <v>2400</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="32">
+        <v>615181</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="32">
+        <v>15</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="32">
+        <v>15</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="22"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" s="36" customFormat="1">
+      <c r="A11" s="6">
         <v>151308917</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <v>30</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="2">
         <v>4831</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F11" s="2">
         <v>615698</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H11" s="2">
         <v>20</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="I11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="2">
         <v>20</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="11"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="11">
-        <v>151296157</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1">
-        <v>20</v>
-      </c>
-      <c r="D12" s="26">
-        <v>4700</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="12">
-        <v>2</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="12">
-        <v>0</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>99</v>
+    <row r="12" spans="1:11" s="36" customFormat="1">
+      <c r="A12" s="31">
+        <v>151315311</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="32">
+        <v>130</v>
+      </c>
+      <c r="D12" s="32">
+        <v>4831</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="32">
+        <v>615698</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="32">
+        <v>10</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="32">
+        <v>10</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="11">
@@ -2417,608 +2474,633 @@
         <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>10</v>
-      </c>
-      <c r="D14" s="13">
-        <v>3700</v>
-      </c>
-      <c r="E14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="26">
+        <v>4700</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="13">
-        <v>615840</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="13">
+      <c r="F14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="12">
         <v>2</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="13">
+      <c r="I14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="12">
         <v>0</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="15"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="1"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="11">
-        <v>151280693</v>
+        <v>151296157</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="1">
-        <v>100</v>
-      </c>
-      <c r="D16" s="26">
-        <v>600</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="12">
-        <v>10</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="12">
+        <v>10</v>
+      </c>
+      <c r="D16" s="13">
+        <v>3700</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="13">
+        <v>615840</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="13">
+        <v>2</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="13">
         <v>0</v>
       </c>
-      <c r="K16" s="12" t="s">
-        <v>92</v>
+      <c r="K16" s="13" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="1"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
     </row>
-    <row r="18" spans="1:12" s="36" customFormat="1">
-      <c r="A18" s="11">
-        <v>151311194</v>
+    <row r="18" spans="1:12">
+      <c r="A18" s="31">
+        <v>151315311</v>
       </c>
       <c r="B18" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="32">
-        <v>10</v>
-      </c>
-      <c r="D18" s="32">
+        <v>120</v>
+      </c>
+      <c r="D18" s="33">
+        <v>600</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="35">
+        <v>20</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="35">
+        <v>20</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" s="36" customFormat="1">
+      <c r="A20" s="31">
+        <v>151315311</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="32">
+        <v>110</v>
+      </c>
+      <c r="D20" s="32">
         <v>5614</v>
       </c>
-      <c r="E18" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="32">
+      <c r="E20" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="32">
         <v>616026</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G20" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="32">
-        <v>6</v>
-      </c>
-      <c r="I18" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="32">
-        <v>1</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="36" customFormat="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="35"/>
-    </row>
-    <row r="20" spans="1:12" s="36" customFormat="1">
-      <c r="A20" s="6">
-        <v>151308917</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="2">
-        <v>80</v>
-      </c>
-      <c r="D20" s="5">
-        <v>6521</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="5">
-        <v>10</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="5">
-        <v>10</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="L20" s="56"/>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="H20" s="32">
+        <v>5</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="32">
+        <v>5</v>
+      </c>
+      <c r="K20" s="35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="36" customFormat="1">
       <c r="A21" s="11"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="35"/>
     </row>
     <row r="22" spans="1:12" s="36" customFormat="1">
-      <c r="A22" s="23">
+      <c r="A22" s="6">
         <v>151308917</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="2">
+        <v>80</v>
+      </c>
+      <c r="D22" s="5">
+        <v>6521</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="5">
+        <v>10</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="5">
+        <v>10</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L22" s="56"/>
+    </row>
+    <row r="23" spans="1:12" s="36" customFormat="1">
+      <c r="A23" s="31">
+        <v>151315311</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="32">
+        <v>100</v>
+      </c>
+      <c r="D23" s="35">
+        <v>6521</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="35">
+        <v>5</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="35">
+        <v>5</v>
+      </c>
+      <c r="K23" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="L23" s="56"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="11"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:12" s="36" customFormat="1">
+      <c r="A25" s="23">
+        <v>151308917</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="65">
         <v>70</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D25" s="65">
         <v>4048</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E25" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F25" s="65">
         <v>630059</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G25" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="H22" s="2">
-        <v>10</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="2">
-        <v>10</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="H25" s="65">
+        <v>10</v>
+      </c>
+      <c r="I25" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="65">
+        <v>10</v>
+      </c>
+      <c r="K25" s="65" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="11"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" s="36" customFormat="1">
-      <c r="A24" s="6">
+    <row r="26" spans="1:12" s="36" customFormat="1">
+      <c r="A26" s="31">
+        <v>151315311</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="32">
+        <v>90</v>
+      </c>
+      <c r="D26" s="32">
+        <v>4048</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="32">
+        <v>630059</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="32">
+        <v>20</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="32">
+        <v>20</v>
+      </c>
+      <c r="K26" s="32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="11"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" s="36" customFormat="1">
+      <c r="A28" s="6">
         <v>151308917</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="2">
-        <v>50</v>
-      </c>
-      <c r="D24" s="20">
-        <v>5738</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="6">
-        <v>632215</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="2">
-        <v>2</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="2">
-        <v>2</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="12" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="11"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="11">
-        <v>151110116</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="1">
-        <v>60</v>
-      </c>
-      <c r="D26" s="13">
-        <v>3450</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="13">
-        <v>634355</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="13">
-        <v>10</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="13">
-        <v>10</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="2">
-        <v>151008992</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="2">
+        <v>50</v>
+      </c>
+      <c r="D28" s="20">
+        <v>5738</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="6">
+        <v>632215</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="2">
+        <v>2</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="12" customHeight="1">
+      <c r="A29" s="11"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="11">
+        <v>151110116</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1">
+        <v>60</v>
+      </c>
+      <c r="D30" s="13">
+        <v>3450</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="13">
+        <v>634355</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="13">
+        <v>10</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="13">
+        <v>10</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="2">
+        <v>151008992</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="2">
         <v>20</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D32" s="10">
         <v>4726</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F32" s="2">
         <v>635655</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="2">
-        <v>10</v>
-      </c>
-      <c r="I28" s="2" t="s">
+      <c r="H32" s="2">
+        <v>10</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J32" s="2">
         <v>0</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K32" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" s="36" customFormat="1">
-      <c r="A30" s="31">
-        <v>151302474</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="32">
-        <v>40</v>
-      </c>
-      <c r="D30" s="60">
-        <v>2818</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="31">
-        <v>635656</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="H30" s="32">
-        <v>15</v>
-      </c>
-      <c r="I30" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="32">
-        <v>0</v>
-      </c>
-      <c r="K30" s="32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" s="36" customFormat="1">
-      <c r="A32" s="31">
-        <v>151302474</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="32">
-        <v>50</v>
-      </c>
-      <c r="D32" s="59">
-        <v>3555</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="F32" s="31">
-        <v>646872</v>
-      </c>
-      <c r="G32" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="H32" s="32">
-        <v>10</v>
-      </c>
-      <c r="I32" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" s="32">
-        <v>0</v>
-      </c>
-      <c r="K32" s="31" t="s">
-        <v>100</v>
-      </c>
-    </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="11"/>
+      <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="11"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="11">
-        <v>151110116</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="1">
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" s="36" customFormat="1">
+      <c r="A34" s="31">
+        <v>151302474</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="32">
         <v>40</v>
       </c>
-      <c r="D34" s="26">
-        <v>112</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" s="12">
-        <v>50</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34" s="12">
+      <c r="D34" s="60">
+        <v>2818</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="31">
+        <v>635656</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="32">
+        <v>15</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="32">
         <v>0</v>
       </c>
-      <c r="K34" s="12" t="s">
-        <v>65</v>
+      <c r="K34" s="32" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="1"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="12"/>
+      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="23">
-        <v>151197029</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="2">
-        <v>60</v>
-      </c>
-      <c r="D36" s="3">
-        <v>3510</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="2">
-        <v>663091</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H36" s="5">
-        <v>2</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="5">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" s="36" customFormat="1">
+      <c r="A36" s="31">
+        <v>151302474</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="32">
+        <v>50</v>
+      </c>
+      <c r="D36" s="59">
+        <v>3555</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="31">
+        <v>646872</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="32">
+        <v>10</v>
+      </c>
+      <c r="I36" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="32">
         <v>0</v>
       </c>
-      <c r="K36" s="5" t="s">
-        <v>75</v>
+      <c r="K36" s="31" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="1"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="12"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="11"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="6">
-        <v>151090350</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="2">
-        <v>10</v>
-      </c>
-      <c r="D38" s="3">
-        <v>5130</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38" s="2">
-        <v>663092</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H38" s="5">
-        <v>2</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="5">
+      <c r="A38" s="11">
+        <v>151110116</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1">
+        <v>40</v>
+      </c>
+      <c r="D38" s="26">
+        <v>112</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="12">
+        <v>50</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="12">
         <v>0</v>
       </c>
-      <c r="K38" s="5" t="s">
-        <v>57</v>
+      <c r="K38" s="12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3034,9 +3116,9 @@
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="1:11" s="36" customFormat="1">
-      <c r="A40" s="6">
-        <v>151308917</v>
+    <row r="40" spans="1:11">
+      <c r="A40" s="23">
+        <v>151197029</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>16</v>
@@ -3045,16 +3127,16 @@
         <v>60</v>
       </c>
       <c r="D40" s="3">
-        <v>6615</v>
+        <v>3510</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="F40" s="2">
-        <v>663093</v>
+        <v>663091</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H40" s="5">
         <v>2</v>
@@ -3063,13 +3145,13 @@
         <v>12</v>
       </c>
       <c r="J40" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="13.5" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3082,9 +3164,9 @@
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
     </row>
-    <row r="42" spans="1:11" ht="13.5" customHeight="1">
+    <row r="42" spans="1:11">
       <c r="A42" s="6">
-        <v>151283046</v>
+        <v>151090350</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>16</v>
@@ -3093,16 +3175,16 @@
         <v>10</v>
       </c>
       <c r="D42" s="3">
-        <v>34000</v>
+        <v>5130</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="F42" s="2">
-        <v>667226</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>97</v>
+        <v>663092</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="H42" s="5">
         <v>2</v>
@@ -3111,13 +3193,13 @@
         <v>12</v>
       </c>
       <c r="J42" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="13.5" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3130,332 +3212,329 @@
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" s="36" customFormat="1">
       <c r="A44" s="6">
-        <v>151282825</v>
+        <v>151308917</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C44" s="2">
+        <v>60</v>
+      </c>
+      <c r="D44" s="3">
+        <v>6615</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" s="2">
+        <v>663093</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" s="5">
+        <v>2</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="5">
+        <v>2</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+    </row>
+    <row r="46" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A46" s="6">
+        <v>151283046</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="2">
+        <v>10</v>
+      </c>
+      <c r="D46" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" s="2">
+        <v>667226</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H46" s="5">
+        <v>2</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="5">
+        <v>2</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="6">
+        <v>151282825</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="2">
         <v>40</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D48" s="3">
         <v>6000</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F48" s="2">
         <v>668330</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H48" s="5">
         <v>3</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" s="5">
+      <c r="I48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="5">
         <v>0</v>
       </c>
-      <c r="K44" s="5" t="s">
+      <c r="K48" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="36" customFormat="1">
-      <c r="A45" s="37"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-    </row>
-    <row r="46" spans="1:11" s="36" customFormat="1">
-      <c r="A46" s="11">
+    <row r="49" spans="1:13" s="36" customFormat="1">
+      <c r="A49" s="37"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
+    </row>
+    <row r="50" spans="1:13" s="36" customFormat="1">
+      <c r="A50" s="11">
         <v>151306604</v>
       </c>
-      <c r="B46" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="32">
-        <v>10</v>
-      </c>
-      <c r="D46" s="33">
+      <c r="B50" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="32">
+        <v>10</v>
+      </c>
+      <c r="D50" s="33">
         <v>9703</v>
       </c>
-      <c r="E46" s="34" t="s">
+      <c r="E50" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="F46" s="31">
+      <c r="F50" s="31">
         <v>681149</v>
       </c>
-      <c r="G46" s="31" t="s">
+      <c r="G50" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="H46" s="35">
+      <c r="H50" s="35">
         <v>1</v>
       </c>
-      <c r="I46" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="35">
+      <c r="I50" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="35">
         <v>0</v>
       </c>
-      <c r="K46" s="34" t="s">
+      <c r="K50" s="34" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="39" t="s">
+    <row r="51" spans="1:13">
+      <c r="A51" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-    </row>
-    <row r="48" spans="1:11" s="36" customFormat="1">
-      <c r="A48" s="11">
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+    </row>
+    <row r="52" spans="1:13" s="36" customFormat="1">
+      <c r="A52" s="11">
         <v>151314791</v>
       </c>
-      <c r="B48" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="32">
-        <v>10</v>
-      </c>
-      <c r="D48" s="33">
+      <c r="B52" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="32">
+        <v>10</v>
+      </c>
+      <c r="D52" s="33">
         <v>1908</v>
       </c>
-      <c r="E48" s="34" t="s">
+      <c r="E52" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F48" s="32" t="s">
+      <c r="F52" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G48" s="32" t="s">
+      <c r="G52" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="35">
+      <c r="H52" s="35">
         <v>40</v>
       </c>
-      <c r="I48" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="35">
+      <c r="I52" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="35">
         <v>40</v>
       </c>
-      <c r="K48" s="35" t="s">
+      <c r="K52" s="35" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="36" customFormat="1">
-      <c r="A49" s="11"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-    </row>
-    <row r="50" spans="1:13" s="36" customFormat="1">
-      <c r="A50" s="6">
+    <row r="53" spans="1:13" s="36" customFormat="1">
+      <c r="A53" s="11"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+    </row>
+    <row r="54" spans="1:13" s="36" customFormat="1">
+      <c r="A54" s="6">
         <v>151288592</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="2">
-        <v>10</v>
-      </c>
-      <c r="D50" s="3">
+      <c r="C54" s="2">
+        <v>10</v>
+      </c>
+      <c r="D54" s="3">
         <v>8463</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E54" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F54" s="6">
         <v>687349</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G54" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H50" s="5">
-        <v>10</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J50" s="5">
+      <c r="H54" s="5">
+        <v>10</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="5">
         <v>0</v>
       </c>
-      <c r="K50" s="5" t="s">
+      <c r="K54" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="36" customFormat="1">
-      <c r="A51" s="31"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-    </row>
-    <row r="52" spans="1:13" s="36" customFormat="1">
-      <c r="A52" s="6">
+    <row r="55" spans="1:13" s="36" customFormat="1">
+      <c r="A55" s="31"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+    </row>
+    <row r="56" spans="1:13" s="36" customFormat="1">
+      <c r="A56" s="6">
         <v>151242082</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="2">
-        <v>10</v>
-      </c>
-      <c r="D52" s="3">
+      <c r="C56" s="2">
+        <v>10</v>
+      </c>
+      <c r="D56" s="3">
         <v>1600</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F56" s="6">
         <v>691660</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H56" s="5">
         <v>1</v>
       </c>
-      <c r="I52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="5">
+      <c r="I56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="5">
         <v>0</v>
       </c>
-      <c r="K52" s="5" t="s">
+      <c r="K56" s="5" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-    </row>
-    <row r="54" spans="1:13" s="47" customFormat="1">
-      <c r="A54" s="11">
-        <v>151314792</v>
-      </c>
-      <c r="B54" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="32">
-        <v>10</v>
-      </c>
-      <c r="D54" s="33">
-        <v>565</v>
-      </c>
-      <c r="E54" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="F54" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G54" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H54" s="35">
-        <v>100</v>
-      </c>
-      <c r="I54" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="35">
-        <v>100</v>
-      </c>
-      <c r="K54" s="35" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="M55" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="18">
-        <v>151264212</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="18">
-        <v>10</v>
-      </c>
-      <c r="D56" s="52">
-        <v>10710</v>
-      </c>
-      <c r="E56" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="F56" s="18">
-        <v>704681</v>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H56" s="19">
-        <v>1</v>
-      </c>
-      <c r="I56" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" s="19">
-        <v>0</v>
-      </c>
-      <c r="K56" s="19" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3465,45 +3544,45 @@
       <c r="D57" s="26"/>
       <c r="E57" s="27"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="57"/>
+      <c r="G57" s="1"/>
       <c r="H57" s="12"/>
       <c r="I57" s="1"/>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
     </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="26">
-        <v>4995</v>
-      </c>
-      <c r="E58" s="27">
-        <v>44223</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H58" s="12">
-        <v>2</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J58" s="12">
-        <v>0</v>
-      </c>
-      <c r="K58" s="12" t="s">
-        <v>41</v>
+    <row r="58" spans="1:13" s="47" customFormat="1">
+      <c r="A58" s="11">
+        <v>151314792</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="32">
+        <v>10</v>
+      </c>
+      <c r="D58" s="33">
+        <v>565</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F58" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G58" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" s="35">
+        <v>100</v>
+      </c>
+      <c r="I58" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="35">
+        <v>100</v>
+      </c>
+      <c r="K58" s="35" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3518,40 +3597,43 @@
       <c r="I59" s="1"/>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
+      <c r="M59" s="25" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="26">
-        <v>4245</v>
-      </c>
-      <c r="E60" s="27">
-        <v>44223</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H60" s="12">
-        <v>2</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J60" s="12">
+      <c r="A60" s="18">
+        <v>151264212</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="18">
+        <v>10</v>
+      </c>
+      <c r="D60" s="52">
+        <v>10710</v>
+      </c>
+      <c r="E60" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F60" s="18">
+        <v>704681</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H60" s="19">
+        <v>1</v>
+      </c>
+      <c r="I60" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="19">
         <v>0</v>
       </c>
-      <c r="K60" s="12" t="s">
-        <v>41</v>
+      <c r="K60" s="19" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3561,36 +3643,36 @@
       <c r="D61" s="26"/>
       <c r="E61" s="27"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+      <c r="G61" s="57"/>
       <c r="H61" s="12"/>
       <c r="I61" s="1"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="21">
-        <v>151113088</v>
+      <c r="A62" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="1">
-        <v>10</v>
+      <c r="C62" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D62" s="26">
-        <v>1896</v>
+        <v>4995</v>
       </c>
       <c r="E62" s="27">
-        <v>44487</v>
+        <v>44223</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H62" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>12</v>
@@ -3599,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3615,305 +3697,471 @@
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="1:13" s="36" customFormat="1">
-      <c r="A64" s="31">
+    <row r="64" spans="1:13">
+      <c r="A64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="26">
+        <v>4245</v>
+      </c>
+      <c r="E64" s="27">
+        <v>44223</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H64" s="12">
+        <v>2</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="12">
+        <v>0</v>
+      </c>
+      <c r="K64" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="21">
+        <v>151113088</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="1">
+        <v>10</v>
+      </c>
+      <c r="D66" s="26">
+        <v>1896</v>
+      </c>
+      <c r="E66" s="27">
+        <v>44487</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" s="12">
+        <v>5</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" s="12">
+        <v>0</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+    </row>
+    <row r="68" spans="1:11" s="36" customFormat="1">
+      <c r="A68" s="31">
         <v>151280693</v>
       </c>
-      <c r="B64" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="54">
+      <c r="B68" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="54">
         <v>30</v>
       </c>
-      <c r="D64" s="54">
+      <c r="D68" s="54">
         <v>45000</v>
       </c>
-      <c r="E64" s="54" t="s">
+      <c r="E68" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="F64" s="54">
+      <c r="F68" s="54">
         <v>719031</v>
       </c>
-      <c r="G64" s="54" t="s">
+      <c r="G68" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="H64" s="55">
+      <c r="H68" s="55">
         <v>20</v>
       </c>
-      <c r="I64" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="J64" s="55">
+      <c r="I68" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="55">
         <v>14</v>
       </c>
-      <c r="K64" s="55" t="s">
+      <c r="K68" s="55" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="36" customFormat="1">
-      <c r="A65" s="6">
+    <row r="69" spans="1:11" s="36" customFormat="1">
+      <c r="A69" s="6">
         <v>151308917</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B69" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="7">
-        <v>10</v>
-      </c>
-      <c r="D65" s="7">
+      <c r="C69" s="7">
+        <v>10</v>
+      </c>
+      <c r="D69" s="7">
         <v>45000</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E69" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F69" s="7">
         <v>719031</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="G69" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H65" s="61">
+      <c r="H69" s="61">
         <v>1</v>
       </c>
-      <c r="I65" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="61">
+      <c r="I69" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="61">
         <v>1</v>
       </c>
-      <c r="K65" s="61" t="s">
+      <c r="K69" s="61" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="39"/>
-      <c r="B66" s="44"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="45"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="45"/>
-      <c r="K66" s="45"/>
-    </row>
-    <row r="67" spans="1:11" s="36" customFormat="1">
-      <c r="A67" s="37">
+    <row r="70" spans="1:11">
+      <c r="A70" s="39"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="45"/>
+      <c r="K70" s="45"/>
+    </row>
+    <row r="71" spans="1:11" s="36" customFormat="1">
+      <c r="A71" s="37">
         <v>151306716</v>
       </c>
-      <c r="B67" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="32">
-        <v>10</v>
-      </c>
-      <c r="D67" s="59">
+      <c r="B71" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="62">
+        <v>10</v>
+      </c>
+      <c r="D71" s="63">
         <v>9999</v>
       </c>
-      <c r="E67" s="31" t="s">
+      <c r="E71" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="F67" s="31">
+      <c r="F71" s="64">
         <v>719381</v>
       </c>
-      <c r="G67" s="31" t="s">
+      <c r="G71" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="H67" s="32">
+      <c r="H71" s="62">
         <v>5</v>
       </c>
-      <c r="I67" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" s="32">
+      <c r="I71" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="62">
         <v>5</v>
       </c>
-      <c r="K67" s="31" t="s">
+      <c r="K71" s="64" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="11"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="11"/>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="23">
+    <row r="72" spans="1:11" s="36" customFormat="1">
+      <c r="A72" s="31">
+        <v>151315311</v>
+      </c>
+      <c r="B72" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="32">
+        <v>30</v>
+      </c>
+      <c r="D72" s="59">
+        <v>9999</v>
+      </c>
+      <c r="E72" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="F72" s="31">
+        <v>719381</v>
+      </c>
+      <c r="G72" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H72" s="32">
+        <v>10</v>
+      </c>
+      <c r="I72" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72" s="32">
+        <v>10</v>
+      </c>
+      <c r="K72" s="31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="11"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="11"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="23">
         <v>151308917</v>
       </c>
-      <c r="B69" s="58" t="s">
+      <c r="B74" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="58">
+      <c r="C74" s="58">
         <v>20</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D74" s="7">
         <v>6800</v>
       </c>
-      <c r="E69" s="58" t="s">
+      <c r="E74" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F74" s="7">
         <v>720138</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="G74" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H69" s="58">
+      <c r="H74" s="58">
         <v>1</v>
       </c>
-      <c r="I69" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" s="58">
+      <c r="I74" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74" s="58">
         <v>0</v>
       </c>
-      <c r="K69" s="58" t="s">
+      <c r="K74" s="58" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="1"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="40"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="40"/>
-      <c r="K70" s="40"/>
-    </row>
-    <row r="71" spans="1:11" s="36" customFormat="1">
-      <c r="A71" s="11">
+    <row r="75" spans="1:11">
+      <c r="A75" s="1"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="40"/>
+    </row>
+    <row r="76" spans="1:11" s="36" customFormat="1">
+      <c r="A76" s="11">
         <v>151280693</v>
       </c>
-      <c r="B71" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="32">
-        <v>10</v>
-      </c>
-      <c r="D71" s="32">
+      <c r="B76" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="32">
+        <v>10</v>
+      </c>
+      <c r="D76" s="32">
         <v>2490</v>
       </c>
-      <c r="E71" s="32" t="s">
+      <c r="E76" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="F71" s="31">
+      <c r="F76" s="31">
         <v>724214</v>
       </c>
-      <c r="G71" s="31" t="s">
+      <c r="G76" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="H71" s="32">
+      <c r="H76" s="32">
         <v>20</v>
       </c>
-      <c r="I71" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J71" s="32">
+      <c r="I76" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" s="32">
         <v>0</v>
       </c>
-      <c r="K71" s="32" t="s">
+      <c r="K76" s="32" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="1">
+    <row r="77" spans="1:11">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="1">
         <v>16063532</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" s="1">
-        <v>10</v>
-      </c>
-      <c r="D73" s="1">
+      <c r="B78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="1">
+        <v>10</v>
+      </c>
+      <c r="D78" s="1">
         <v>2900</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F78" s="1">
         <v>725828</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H73" s="1">
-        <v>10</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J73" s="1">
+      <c r="H78" s="1">
+        <v>10</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J78" s="1">
         <v>0</v>
       </c>
-      <c r="K73" s="1" t="s">
+      <c r="K78" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="6">
+    <row r="80" spans="1:11">
+      <c r="A80" s="6">
         <v>151294292</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C75" s="2">
-        <v>10</v>
-      </c>
-      <c r="D75" s="2">
+      <c r="C80" s="2">
+        <v>10</v>
+      </c>
+      <c r="D80" s="2">
         <v>100</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F80" s="2">
         <v>728488</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="G80" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H80" s="2">
         <v>61</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="I80" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J75" s="2">
+      <c r="J80" s="2">
         <v>0</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="K80" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
-      <c r="F78" s="17"/>
+    <row r="81" spans="1:11" s="36" customFormat="1">
+      <c r="A81" s="31">
+        <v>151315311</v>
+      </c>
+      <c r="B81" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="32">
+        <v>10</v>
+      </c>
+      <c r="D81" s="32">
+        <v>100</v>
+      </c>
+      <c r="E81" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="F81" s="32">
+        <v>728488</v>
+      </c>
+      <c r="G81" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H81" s="32">
+        <v>10</v>
+      </c>
+      <c r="I81" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J81" s="32">
+        <v>10</v>
+      </c>
+      <c r="K81" s="32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="F84" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
